--- a/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>298800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>340400</v>
+      </c>
+      <c r="F8" s="3">
         <v>302700</v>
       </c>
-      <c r="E8" s="3">
-        <v>344900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>306700</v>
-      </c>
       <c r="G8" s="3">
-        <v>257500</v>
+        <v>254100</v>
       </c>
       <c r="H8" s="3">
-        <v>202400</v>
+        <v>199800</v>
       </c>
       <c r="I8" s="3">
-        <v>145900</v>
+        <v>144000</v>
       </c>
       <c r="J8" s="3">
-        <v>86900</v>
+        <v>85800</v>
       </c>
       <c r="K8" s="3">
         <v>97200</v>
@@ -747,25 +747,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>89200</v>
+        <v>88000</v>
       </c>
       <c r="E9" s="3">
-        <v>96200</v>
+        <v>94900</v>
       </c>
       <c r="F9" s="3">
-        <v>78400</v>
+        <v>77300</v>
       </c>
       <c r="G9" s="3">
-        <v>56300</v>
+        <v>55500</v>
       </c>
       <c r="H9" s="3">
-        <v>44200</v>
+        <v>43600</v>
       </c>
       <c r="I9" s="3">
-        <v>30600</v>
+        <v>30200</v>
       </c>
       <c r="J9" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="K9" s="3">
         <v>28600</v>
@@ -776,25 +776,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>213500</v>
+        <v>210800</v>
       </c>
       <c r="E10" s="3">
-        <v>248800</v>
+        <v>245500</v>
       </c>
       <c r="F10" s="3">
-        <v>228300</v>
+        <v>225400</v>
       </c>
       <c r="G10" s="3">
-        <v>201200</v>
+        <v>198600</v>
       </c>
       <c r="H10" s="3">
-        <v>158200</v>
+        <v>156200</v>
       </c>
       <c r="I10" s="3">
-        <v>115300</v>
+        <v>113800</v>
       </c>
       <c r="J10" s="3">
-        <v>62500</v>
+        <v>61600</v>
       </c>
       <c r="K10" s="3">
         <v>68600</v>
@@ -818,25 +818,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>57000</v>
+        <v>56200</v>
       </c>
       <c r="E12" s="3">
-        <v>42900</v>
+        <v>42300</v>
       </c>
       <c r="F12" s="3">
-        <v>34400</v>
+        <v>33900</v>
       </c>
       <c r="G12" s="3">
-        <v>21800</v>
+        <v>21500</v>
       </c>
       <c r="H12" s="3">
-        <v>15500</v>
+        <v>15300</v>
       </c>
       <c r="I12" s="3">
-        <v>13000</v>
+        <v>12900</v>
       </c>
       <c r="J12" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="K12" s="3">
         <v>11200</v>
@@ -876,19 +876,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="E14" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="F14" s="3">
-        <v>-8000</v>
+        <v>-7900</v>
       </c>
       <c r="G14" s="3">
-        <v>-13900</v>
+        <v>-13700</v>
       </c>
       <c r="H14" s="3">
-        <v>-9600</v>
+        <v>-9500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -944,25 +944,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>530200</v>
+        <v>523300</v>
       </c>
       <c r="E17" s="3">
-        <v>443700</v>
+        <v>438000</v>
       </c>
       <c r="F17" s="3">
-        <v>453100</v>
+        <v>447200</v>
       </c>
       <c r="G17" s="3">
-        <v>268700</v>
+        <v>265200</v>
       </c>
       <c r="H17" s="3">
-        <v>178500</v>
+        <v>176200</v>
       </c>
       <c r="I17" s="3">
-        <v>119700</v>
+        <v>118200</v>
       </c>
       <c r="J17" s="3">
-        <v>88600</v>
+        <v>87400</v>
       </c>
       <c r="K17" s="3">
         <v>88000</v>
@@ -973,22 +973,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-227500</v>
+        <v>-224500</v>
       </c>
       <c r="E18" s="3">
-        <v>-98800</v>
+        <v>-97500</v>
       </c>
       <c r="F18" s="3">
-        <v>-146400</v>
+        <v>-144500</v>
       </c>
       <c r="G18" s="3">
-        <v>-11200</v>
+        <v>-11100</v>
       </c>
       <c r="H18" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="I18" s="3">
-        <v>26100</v>
+        <v>25800</v>
       </c>
       <c r="J18" s="3">
         <v>-1700</v>
@@ -1059,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="3">
-        <v>30200</v>
+        <v>29800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>10</v>
@@ -1102,25 +1102,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-223800</v>
+        <v>-220900</v>
       </c>
       <c r="E23" s="3">
-        <v>-97300</v>
+        <v>-96000</v>
       </c>
       <c r="F23" s="3">
-        <v>-143800</v>
+        <v>-141900</v>
       </c>
       <c r="G23" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="H23" s="3">
-        <v>26000</v>
+        <v>25600</v>
       </c>
       <c r="I23" s="3">
-        <v>28400</v>
+        <v>28000</v>
       </c>
       <c r="J23" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K23" s="3">
         <v>10100</v>
@@ -1134,13 +1134,13 @@
         <v>-1500</v>
       </c>
       <c r="E24" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F24" s="3">
         <v>1600</v>
       </c>
       <c r="G24" s="3">
-        <v>-10700</v>
+        <v>-10600</v>
       </c>
       <c r="H24" s="3">
         <v>2800</v>
@@ -1149,7 +1149,7 @@
         <v>1200</v>
       </c>
       <c r="J24" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K24" s="3">
         <v>2300</v>
@@ -1189,22 +1189,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-222300</v>
+        <v>-219400</v>
       </c>
       <c r="E26" s="3">
-        <v>-98100</v>
+        <v>-96800</v>
       </c>
       <c r="F26" s="3">
-        <v>-145400</v>
+        <v>-143500</v>
       </c>
       <c r="G26" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H26" s="3">
-        <v>23200</v>
+        <v>22900</v>
       </c>
       <c r="I26" s="3">
-        <v>27100</v>
+        <v>26800</v>
       </c>
       <c r="J26" s="3">
         <v>200</v>
@@ -1218,22 +1218,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-222500</v>
+        <v>-219600</v>
       </c>
       <c r="E27" s="3">
-        <v>-97800</v>
+        <v>-96600</v>
       </c>
       <c r="F27" s="3">
-        <v>-145500</v>
+        <v>-143600</v>
       </c>
       <c r="G27" s="3">
         <v>2900</v>
       </c>
       <c r="H27" s="3">
-        <v>23100</v>
+        <v>22800</v>
       </c>
       <c r="I27" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="J27" s="3">
         <v>300</v>
@@ -1392,22 +1392,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-222500</v>
+        <v>-219600</v>
       </c>
       <c r="E33" s="3">
-        <v>-97800</v>
+        <v>-96600</v>
       </c>
       <c r="F33" s="3">
-        <v>-145500</v>
+        <v>-143600</v>
       </c>
       <c r="G33" s="3">
         <v>2900</v>
       </c>
       <c r="H33" s="3">
-        <v>23100</v>
+        <v>22800</v>
       </c>
       <c r="I33" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="J33" s="3">
         <v>300</v>
@@ -1450,22 +1450,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-222500</v>
+        <v>-219600</v>
       </c>
       <c r="E35" s="3">
-        <v>-97800</v>
+        <v>-96600</v>
       </c>
       <c r="F35" s="3">
-        <v>-145500</v>
+        <v>-143600</v>
       </c>
       <c r="G35" s="3">
         <v>2900</v>
       </c>
       <c r="H35" s="3">
-        <v>23100</v>
+        <v>22800</v>
       </c>
       <c r="I35" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="J35" s="3">
         <v>300</v>
@@ -1539,25 +1539,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>454100</v>
+        <v>448200</v>
       </c>
       <c r="E41" s="3">
-        <v>55400</v>
+        <v>54700</v>
       </c>
       <c r="F41" s="3">
-        <v>29300</v>
+        <v>28900</v>
       </c>
       <c r="G41" s="3">
-        <v>35100</v>
+        <v>34700</v>
       </c>
       <c r="H41" s="3">
-        <v>88200</v>
+        <v>87000</v>
       </c>
       <c r="I41" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="J41" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="K41" s="3">
         <v>9400</v>
@@ -1568,25 +1568,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>382000</v>
+        <v>377000</v>
       </c>
       <c r="E42" s="3">
-        <v>1143800</v>
+        <v>1128900</v>
       </c>
       <c r="F42" s="3">
-        <v>216400</v>
+        <v>213600</v>
       </c>
       <c r="G42" s="3">
-        <v>334500</v>
+        <v>330200</v>
       </c>
       <c r="H42" s="3">
-        <v>156500</v>
+        <v>154500</v>
       </c>
       <c r="I42" s="3">
-        <v>229900</v>
+        <v>226900</v>
       </c>
       <c r="J42" s="3">
-        <v>158300</v>
+        <v>156200</v>
       </c>
       <c r="K42" s="3">
         <v>263100</v>
@@ -1626,16 +1626,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="E44" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="F44" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="G44" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>10</v>
@@ -1655,25 +1655,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>133400</v>
+        <v>131600</v>
       </c>
       <c r="E45" s="3">
-        <v>112700</v>
+        <v>111300</v>
       </c>
       <c r="F45" s="3">
-        <v>69900</v>
+        <v>69000</v>
       </c>
       <c r="G45" s="3">
-        <v>84200</v>
+        <v>83100</v>
       </c>
       <c r="H45" s="3">
-        <v>61100</v>
+        <v>60300</v>
       </c>
       <c r="I45" s="3">
-        <v>40800</v>
+        <v>40300</v>
       </c>
       <c r="J45" s="3">
-        <v>29400</v>
+        <v>29000</v>
       </c>
       <c r="K45" s="3">
         <v>23100</v>
@@ -1684,25 +1684,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>977400</v>
+        <v>964700</v>
       </c>
       <c r="E46" s="3">
-        <v>1319400</v>
+        <v>1302200</v>
       </c>
       <c r="F46" s="3">
-        <v>323500</v>
+        <v>319300</v>
       </c>
       <c r="G46" s="3">
-        <v>464700</v>
+        <v>458600</v>
       </c>
       <c r="H46" s="3">
-        <v>305800</v>
+        <v>301800</v>
       </c>
       <c r="I46" s="3">
-        <v>282200</v>
+        <v>278500</v>
       </c>
       <c r="J46" s="3">
-        <v>192700</v>
+        <v>190200</v>
       </c>
       <c r="K46" s="3">
         <v>295600</v>
@@ -1713,25 +1713,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>82200</v>
+        <v>81100</v>
       </c>
       <c r="E47" s="3">
-        <v>82800</v>
+        <v>81700</v>
       </c>
       <c r="F47" s="3">
-        <v>86700</v>
+        <v>85600</v>
       </c>
       <c r="G47" s="3">
-        <v>89300</v>
+        <v>88100</v>
       </c>
       <c r="H47" s="3">
-        <v>182400</v>
+        <v>180000</v>
       </c>
       <c r="I47" s="3">
-        <v>185400</v>
+        <v>183000</v>
       </c>
       <c r="J47" s="3">
-        <v>165900</v>
+        <v>163700</v>
       </c>
       <c r="K47" s="3">
         <v>800</v>
@@ -1742,25 +1742,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>256600</v>
+        <v>253300</v>
       </c>
       <c r="E48" s="3">
-        <v>235700</v>
+        <v>232700</v>
       </c>
       <c r="F48" s="3">
-        <v>212900</v>
+        <v>210200</v>
       </c>
       <c r="G48" s="3">
-        <v>173800</v>
+        <v>171500</v>
       </c>
       <c r="H48" s="3">
-        <v>140800</v>
+        <v>139000</v>
       </c>
       <c r="I48" s="3">
-        <v>54100</v>
+        <v>53400</v>
       </c>
       <c r="J48" s="3">
-        <v>42100</v>
+        <v>41500</v>
       </c>
       <c r="K48" s="3">
         <v>38700</v>
@@ -1771,10 +1771,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E49" s="3">
-        <v>13400</v>
+        <v>13200</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>10</v>
@@ -1858,25 +1858,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25800</v>
+        <v>25400</v>
       </c>
       <c r="E52" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="F52" s="3">
-        <v>32200</v>
+        <v>31800</v>
       </c>
       <c r="G52" s="3">
-        <v>35100</v>
+        <v>34600</v>
       </c>
       <c r="H52" s="3">
-        <v>24300</v>
+        <v>24000</v>
       </c>
       <c r="I52" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="J52" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="K52" s="3">
         <v>5000</v>
@@ -1916,25 +1916,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1346500</v>
+        <v>1328900</v>
       </c>
       <c r="E54" s="3">
-        <v>1667100</v>
+        <v>1645400</v>
       </c>
       <c r="F54" s="3">
-        <v>655300</v>
+        <v>646800</v>
       </c>
       <c r="G54" s="3">
-        <v>762800</v>
+        <v>752900</v>
       </c>
       <c r="H54" s="3">
-        <v>653300</v>
+        <v>644800</v>
       </c>
       <c r="I54" s="3">
-        <v>529600</v>
+        <v>522700</v>
       </c>
       <c r="J54" s="3">
-        <v>409400</v>
+        <v>404100</v>
       </c>
       <c r="K54" s="3">
         <v>340200</v>
@@ -2029,25 +2029,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>542200</v>
+        <v>535100</v>
       </c>
       <c r="E59" s="3">
-        <v>654800</v>
+        <v>646300</v>
       </c>
       <c r="F59" s="3">
-        <v>441600</v>
+        <v>435900</v>
       </c>
       <c r="G59" s="3">
-        <v>430300</v>
+        <v>424700</v>
       </c>
       <c r="H59" s="3">
-        <v>286400</v>
+        <v>282700</v>
       </c>
       <c r="I59" s="3">
-        <v>255400</v>
+        <v>252100</v>
       </c>
       <c r="J59" s="3">
-        <v>157300</v>
+        <v>155200</v>
       </c>
       <c r="K59" s="3">
         <v>104000</v>
@@ -2058,25 +2058,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>542200</v>
+        <v>535100</v>
       </c>
       <c r="E60" s="3">
-        <v>654800</v>
+        <v>646300</v>
       </c>
       <c r="F60" s="3">
-        <v>441600</v>
+        <v>435900</v>
       </c>
       <c r="G60" s="3">
-        <v>430300</v>
+        <v>424700</v>
       </c>
       <c r="H60" s="3">
-        <v>286400</v>
+        <v>282700</v>
       </c>
       <c r="I60" s="3">
-        <v>255400</v>
+        <v>252100</v>
       </c>
       <c r="J60" s="3">
-        <v>157300</v>
+        <v>155200</v>
       </c>
       <c r="K60" s="3">
         <v>104000</v>
@@ -2116,25 +2116,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>122100</v>
+        <v>120500</v>
       </c>
       <c r="E62" s="3">
-        <v>118300</v>
+        <v>116800</v>
       </c>
       <c r="F62" s="3">
-        <v>112600</v>
+        <v>111100</v>
       </c>
       <c r="G62" s="3">
-        <v>90500</v>
+        <v>89300</v>
       </c>
       <c r="H62" s="3">
-        <v>97500</v>
+        <v>96300</v>
       </c>
       <c r="I62" s="3">
-        <v>31200</v>
+        <v>30800</v>
       </c>
       <c r="J62" s="3">
-        <v>23700</v>
+        <v>23400</v>
       </c>
       <c r="K62" s="3">
         <v>25600</v>
@@ -2232,25 +2232,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>664200</v>
+        <v>655600</v>
       </c>
       <c r="E66" s="3">
-        <v>773200</v>
+        <v>763100</v>
       </c>
       <c r="F66" s="3">
-        <v>554200</v>
+        <v>547000</v>
       </c>
       <c r="G66" s="3">
-        <v>520800</v>
+        <v>514000</v>
       </c>
       <c r="H66" s="3">
-        <v>383900</v>
+        <v>378900</v>
       </c>
       <c r="I66" s="3">
-        <v>286600</v>
+        <v>282900</v>
       </c>
       <c r="J66" s="3">
-        <v>181000</v>
+        <v>178700</v>
       </c>
       <c r="K66" s="3">
         <v>129500</v>
@@ -2390,25 +2390,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-482300</v>
+        <v>-476100</v>
       </c>
       <c r="E72" s="3">
-        <v>-259900</v>
+        <v>-256500</v>
       </c>
       <c r="F72" s="3">
-        <v>-162100</v>
+        <v>-160000</v>
       </c>
       <c r="G72" s="3">
-        <v>-16600</v>
+        <v>-16400</v>
       </c>
       <c r="H72" s="3">
-        <v>-19500</v>
+        <v>-19200</v>
       </c>
       <c r="I72" s="3">
-        <v>-42600</v>
+        <v>-42000</v>
       </c>
       <c r="J72" s="3">
-        <v>-69800</v>
+        <v>-68900</v>
       </c>
       <c r="K72" s="3">
         <v>-70100</v>
@@ -2506,25 +2506,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>682200</v>
+        <v>673300</v>
       </c>
       <c r="E76" s="3">
-        <v>893900</v>
+        <v>882300</v>
       </c>
       <c r="F76" s="3">
-        <v>101100</v>
+        <v>99800</v>
       </c>
       <c r="G76" s="3">
-        <v>242100</v>
+        <v>238900</v>
       </c>
       <c r="H76" s="3">
-        <v>269400</v>
+        <v>265800</v>
       </c>
       <c r="I76" s="3">
-        <v>243000</v>
+        <v>239800</v>
       </c>
       <c r="J76" s="3">
-        <v>228400</v>
+        <v>225400</v>
       </c>
       <c r="K76" s="3">
         <v>210700</v>
@@ -2598,22 +2598,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-222500</v>
+        <v>-219600</v>
       </c>
       <c r="E81" s="3">
-        <v>-97800</v>
+        <v>-96600</v>
       </c>
       <c r="F81" s="3">
-        <v>-145500</v>
+        <v>-143600</v>
       </c>
       <c r="G81" s="3">
         <v>2900</v>
       </c>
       <c r="H81" s="3">
-        <v>23100</v>
+        <v>22800</v>
       </c>
       <c r="I81" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="J81" s="3">
         <v>300</v>

--- a/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>GOTU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>298800</v>
+        <v>349500</v>
       </c>
       <c r="E8" s="3">
-        <v>340400</v>
+        <v>303800</v>
       </c>
       <c r="F8" s="3">
-        <v>302700</v>
+        <v>346200</v>
       </c>
       <c r="G8" s="3">
-        <v>254100</v>
+        <v>307800</v>
       </c>
       <c r="H8" s="3">
-        <v>199800</v>
+        <v>258400</v>
       </c>
       <c r="I8" s="3">
-        <v>144000</v>
+        <v>203200</v>
       </c>
       <c r="J8" s="3">
+        <v>146400</v>
+      </c>
+      <c r="K8" s="3">
         <v>85800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>97200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>88000</v>
+        <v>113400</v>
       </c>
       <c r="E9" s="3">
-        <v>94900</v>
+        <v>89500</v>
       </c>
       <c r="F9" s="3">
-        <v>77300</v>
+        <v>96500</v>
       </c>
       <c r="G9" s="3">
-        <v>55500</v>
+        <v>78600</v>
       </c>
       <c r="H9" s="3">
-        <v>43600</v>
+        <v>56500</v>
       </c>
       <c r="I9" s="3">
-        <v>30200</v>
+        <v>44300</v>
       </c>
       <c r="J9" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K9" s="3">
         <v>24100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>210800</v>
+        <v>236100</v>
       </c>
       <c r="E10" s="3">
-        <v>245500</v>
+        <v>214300</v>
       </c>
       <c r="F10" s="3">
-        <v>225400</v>
+        <v>249700</v>
       </c>
       <c r="G10" s="3">
-        <v>198600</v>
+        <v>229100</v>
       </c>
       <c r="H10" s="3">
-        <v>156200</v>
+        <v>201900</v>
       </c>
       <c r="I10" s="3">
-        <v>113800</v>
+        <v>158800</v>
       </c>
       <c r="J10" s="3">
+        <v>115700</v>
+      </c>
+      <c r="K10" s="3">
         <v>61600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>68600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>56200</v>
+        <v>66800</v>
       </c>
       <c r="E12" s="3">
-        <v>42300</v>
+        <v>57200</v>
       </c>
       <c r="F12" s="3">
-        <v>33900</v>
+        <v>43000</v>
       </c>
       <c r="G12" s="3">
-        <v>21500</v>
+        <v>34500</v>
       </c>
       <c r="H12" s="3">
-        <v>15300</v>
+        <v>21900</v>
       </c>
       <c r="I12" s="3">
-        <v>12900</v>
+        <v>15600</v>
       </c>
       <c r="J12" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K12" s="3">
         <v>8800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,28 +887,31 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-6900</v>
+        <v>-17200</v>
       </c>
       <c r="E14" s="3">
-        <v>-9700</v>
+        <v>-7000</v>
       </c>
       <c r="F14" s="3">
-        <v>-7900</v>
+        <v>-9800</v>
       </c>
       <c r="G14" s="3">
-        <v>-13700</v>
+        <v>-8100</v>
       </c>
       <c r="H14" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>-13900</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-9600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -899,8 +919,11 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>523300</v>
+        <v>474400</v>
       </c>
       <c r="E17" s="3">
-        <v>438000</v>
+        <v>532000</v>
       </c>
       <c r="F17" s="3">
-        <v>447200</v>
+        <v>445300</v>
       </c>
       <c r="G17" s="3">
-        <v>265200</v>
+        <v>454700</v>
       </c>
       <c r="H17" s="3">
-        <v>176200</v>
+        <v>269600</v>
       </c>
       <c r="I17" s="3">
-        <v>118200</v>
+        <v>179100</v>
       </c>
       <c r="J17" s="3">
+        <v>120100</v>
+      </c>
+      <c r="K17" s="3">
         <v>87400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-224500</v>
+        <v>-124900</v>
       </c>
       <c r="E18" s="3">
-        <v>-97500</v>
+        <v>-228300</v>
       </c>
       <c r="F18" s="3">
-        <v>-144500</v>
+        <v>-99100</v>
       </c>
       <c r="G18" s="3">
-        <v>-11100</v>
+        <v>-147000</v>
       </c>
       <c r="H18" s="3">
-        <v>23600</v>
+        <v>-11300</v>
       </c>
       <c r="I18" s="3">
-        <v>25800</v>
+        <v>24000</v>
       </c>
       <c r="J18" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,37 +1042,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E20" s="3">
         <v>3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3600</v>
       </c>
-      <c r="H20" s="3">
-        <v>2000</v>
-      </c>
       <c r="I20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J20" s="3">
         <v>2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1058,17 +1095,20 @@
       <c r="H21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="3">
-        <v>29800</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="J21" s="3">
+        <v>30300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-220900</v>
+        <v>-135900</v>
       </c>
       <c r="E23" s="3">
-        <v>-96000</v>
+        <v>-224600</v>
       </c>
       <c r="F23" s="3">
-        <v>-141900</v>
+        <v>-97600</v>
       </c>
       <c r="G23" s="3">
-        <v>-7500</v>
+        <v>-144300</v>
       </c>
       <c r="H23" s="3">
-        <v>25600</v>
+        <v>-7700</v>
       </c>
       <c r="I23" s="3">
-        <v>28000</v>
+        <v>26100</v>
       </c>
       <c r="J23" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1500</v>
       </c>
-      <c r="E24" s="3">
-        <v>800</v>
-      </c>
       <c r="F24" s="3">
+        <v>900</v>
+      </c>
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H24" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I24" s="3">
         <v>2800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-219400</v>
+        <v>-143900</v>
       </c>
       <c r="E26" s="3">
-        <v>-96800</v>
+        <v>-223100</v>
       </c>
       <c r="F26" s="3">
-        <v>-143500</v>
+        <v>-98500</v>
       </c>
       <c r="G26" s="3">
-        <v>3000</v>
+        <v>-146000</v>
       </c>
       <c r="H26" s="3">
-        <v>22900</v>
+        <v>3100</v>
       </c>
       <c r="I26" s="3">
-        <v>26800</v>
+        <v>23200</v>
       </c>
       <c r="J26" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-219600</v>
+        <v>-143800</v>
       </c>
       <c r="E27" s="3">
-        <v>-96600</v>
+        <v>-223200</v>
       </c>
       <c r="F27" s="3">
-        <v>-143600</v>
+        <v>-98200</v>
       </c>
       <c r="G27" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="H27" s="3">
         <v>2900</v>
       </c>
-      <c r="H27" s="3">
-        <v>22800</v>
-      </c>
       <c r="I27" s="3">
-        <v>24100</v>
+        <v>23200</v>
       </c>
       <c r="J27" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-2000</v>
-      </c>
       <c r="I32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-219600</v>
+        <v>-143800</v>
       </c>
       <c r="E33" s="3">
-        <v>-96600</v>
+        <v>-223200</v>
       </c>
       <c r="F33" s="3">
-        <v>-143600</v>
+        <v>-98200</v>
       </c>
       <c r="G33" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="H33" s="3">
         <v>2900</v>
       </c>
-      <c r="H33" s="3">
-        <v>22800</v>
-      </c>
       <c r="I33" s="3">
-        <v>24100</v>
+        <v>23200</v>
       </c>
       <c r="J33" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-219600</v>
+        <v>-143800</v>
       </c>
       <c r="E35" s="3">
-        <v>-96600</v>
+        <v>-223200</v>
       </c>
       <c r="F35" s="3">
-        <v>-143600</v>
+        <v>-98200</v>
       </c>
       <c r="G35" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="H35" s="3">
         <v>2900</v>
       </c>
-      <c r="H35" s="3">
-        <v>22800</v>
-      </c>
       <c r="I35" s="3">
-        <v>24100</v>
+        <v>23200</v>
       </c>
       <c r="J35" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,66 +1619,73 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>448200</v>
+        <v>157400</v>
       </c>
       <c r="E41" s="3">
-        <v>54700</v>
+        <v>455700</v>
       </c>
       <c r="F41" s="3">
-        <v>28900</v>
+        <v>55600</v>
       </c>
       <c r="G41" s="3">
-        <v>34700</v>
+        <v>29400</v>
       </c>
       <c r="H41" s="3">
-        <v>87000</v>
+        <v>35300</v>
       </c>
       <c r="I41" s="3">
-        <v>11400</v>
+        <v>88500</v>
       </c>
       <c r="J41" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K41" s="3">
         <v>4900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>377000</v>
+        <v>618400</v>
       </c>
       <c r="E42" s="3">
-        <v>1128900</v>
+        <v>383300</v>
       </c>
       <c r="F42" s="3">
-        <v>213600</v>
+        <v>1147800</v>
       </c>
       <c r="G42" s="3">
-        <v>330200</v>
+        <v>217200</v>
       </c>
       <c r="H42" s="3">
-        <v>154500</v>
+        <v>335700</v>
       </c>
       <c r="I42" s="3">
-        <v>226900</v>
+        <v>157100</v>
       </c>
       <c r="J42" s="3">
+        <v>230700</v>
+      </c>
+      <c r="K42" s="3">
         <v>156200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>263100</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,25 +1713,28 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7900</v>
+        <v>9800</v>
       </c>
       <c r="E44" s="3">
-        <v>7400</v>
+        <v>8000</v>
       </c>
       <c r="F44" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="G44" s="3">
-        <v>10600</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>10</v>
+        <v>7800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>10800</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>10</v>
@@ -1649,135 +1745,150 @@
       <c r="K44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131600</v>
+        <v>110200</v>
       </c>
       <c r="E45" s="3">
-        <v>111300</v>
+        <v>133800</v>
       </c>
       <c r="F45" s="3">
-        <v>69000</v>
+        <v>113100</v>
       </c>
       <c r="G45" s="3">
-        <v>83100</v>
+        <v>70200</v>
       </c>
       <c r="H45" s="3">
-        <v>60300</v>
+        <v>84500</v>
       </c>
       <c r="I45" s="3">
-        <v>40300</v>
+        <v>61400</v>
       </c>
       <c r="J45" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K45" s="3">
         <v>29000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>964700</v>
+        <v>895800</v>
       </c>
       <c r="E46" s="3">
-        <v>1302200</v>
+        <v>980900</v>
       </c>
       <c r="F46" s="3">
-        <v>319300</v>
+        <v>1324100</v>
       </c>
       <c r="G46" s="3">
-        <v>458600</v>
+        <v>324600</v>
       </c>
       <c r="H46" s="3">
-        <v>301800</v>
+        <v>466300</v>
       </c>
       <c r="I46" s="3">
-        <v>278500</v>
+        <v>306900</v>
       </c>
       <c r="J46" s="3">
+        <v>283200</v>
+      </c>
+      <c r="K46" s="3">
         <v>190200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>295600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>81100</v>
+        <v>81200</v>
       </c>
       <c r="E47" s="3">
-        <v>81700</v>
+        <v>82400</v>
       </c>
       <c r="F47" s="3">
-        <v>85600</v>
+        <v>83100</v>
       </c>
       <c r="G47" s="3">
-        <v>88100</v>
+        <v>87000</v>
       </c>
       <c r="H47" s="3">
-        <v>180000</v>
+        <v>89600</v>
       </c>
       <c r="I47" s="3">
         <v>183000</v>
       </c>
       <c r="J47" s="3">
+        <v>186000</v>
+      </c>
+      <c r="K47" s="3">
         <v>163700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>253300</v>
+        <v>268400</v>
       </c>
       <c r="E48" s="3">
-        <v>232700</v>
+        <v>257500</v>
       </c>
       <c r="F48" s="3">
-        <v>210200</v>
+        <v>236600</v>
       </c>
       <c r="G48" s="3">
-        <v>171500</v>
+        <v>213700</v>
       </c>
       <c r="H48" s="3">
-        <v>139000</v>
+        <v>174400</v>
       </c>
       <c r="I48" s="3">
-        <v>53400</v>
+        <v>141300</v>
       </c>
       <c r="J48" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K48" s="3">
         <v>41500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E49" s="3">
-        <v>13200</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
+        <v>4500</v>
+      </c>
+      <c r="F49" s="3">
+        <v>13400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>10</v>
@@ -1785,8 +1896,8 @@
       <c r="H49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I49" s="3">
-        <v>100</v>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25400</v>
+        <v>8800</v>
       </c>
       <c r="E52" s="3">
-        <v>15600</v>
+        <v>25900</v>
       </c>
       <c r="F52" s="3">
-        <v>31800</v>
+        <v>15800</v>
       </c>
       <c r="G52" s="3">
-        <v>34600</v>
+        <v>32300</v>
       </c>
       <c r="H52" s="3">
-        <v>24000</v>
+        <v>35200</v>
       </c>
       <c r="I52" s="3">
-        <v>7700</v>
+        <v>24400</v>
       </c>
       <c r="J52" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K52" s="3">
         <v>8600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1328900</v>
+        <v>1258600</v>
       </c>
       <c r="E54" s="3">
-        <v>1645400</v>
+        <v>1351200</v>
       </c>
       <c r="F54" s="3">
-        <v>646800</v>
+        <v>1673000</v>
       </c>
       <c r="G54" s="3">
-        <v>752900</v>
+        <v>657600</v>
       </c>
       <c r="H54" s="3">
-        <v>644800</v>
+        <v>765500</v>
       </c>
       <c r="I54" s="3">
-        <v>522700</v>
+        <v>655600</v>
       </c>
       <c r="J54" s="3">
+        <v>531400</v>
+      </c>
+      <c r="K54" s="3">
         <v>404100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>340200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,66 +2157,75 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>535100</v>
+        <v>583000</v>
       </c>
       <c r="E59" s="3">
-        <v>646300</v>
+        <v>544100</v>
       </c>
       <c r="F59" s="3">
-        <v>435900</v>
+        <v>657100</v>
       </c>
       <c r="G59" s="3">
-        <v>424700</v>
+        <v>443200</v>
       </c>
       <c r="H59" s="3">
-        <v>282700</v>
+        <v>431800</v>
       </c>
       <c r="I59" s="3">
-        <v>252100</v>
+        <v>287400</v>
       </c>
       <c r="J59" s="3">
+        <v>256300</v>
+      </c>
+      <c r="K59" s="3">
         <v>155200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>535100</v>
+        <v>583000</v>
       </c>
       <c r="E60" s="3">
-        <v>646300</v>
+        <v>544100</v>
       </c>
       <c r="F60" s="3">
-        <v>435900</v>
+        <v>657100</v>
       </c>
       <c r="G60" s="3">
-        <v>424700</v>
+        <v>443200</v>
       </c>
       <c r="H60" s="3">
-        <v>282700</v>
+        <v>431800</v>
       </c>
       <c r="I60" s="3">
-        <v>252100</v>
+        <v>287400</v>
       </c>
       <c r="J60" s="3">
+        <v>256300</v>
+      </c>
+      <c r="K60" s="3">
         <v>155200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,37 +2253,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>120500</v>
+        <v>113100</v>
       </c>
       <c r="E62" s="3">
-        <v>116800</v>
+        <v>122500</v>
       </c>
       <c r="F62" s="3">
-        <v>111100</v>
+        <v>118800</v>
       </c>
       <c r="G62" s="3">
-        <v>89300</v>
+        <v>112900</v>
       </c>
       <c r="H62" s="3">
-        <v>96300</v>
+        <v>90800</v>
       </c>
       <c r="I62" s="3">
-        <v>30800</v>
+        <v>97900</v>
       </c>
       <c r="J62" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K62" s="3">
         <v>23400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>655600</v>
+        <v>696100</v>
       </c>
       <c r="E66" s="3">
-        <v>763100</v>
+        <v>666600</v>
       </c>
       <c r="F66" s="3">
-        <v>547000</v>
+        <v>775900</v>
       </c>
       <c r="G66" s="3">
-        <v>514000</v>
+        <v>556200</v>
       </c>
       <c r="H66" s="3">
-        <v>378900</v>
+        <v>522600</v>
       </c>
       <c r="I66" s="3">
-        <v>282900</v>
+        <v>385300</v>
       </c>
       <c r="J66" s="3">
+        <v>287600</v>
+      </c>
+      <c r="K66" s="3">
         <v>178700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-476100</v>
+        <v>-627900</v>
       </c>
       <c r="E72" s="3">
-        <v>-256500</v>
+        <v>-484000</v>
       </c>
       <c r="F72" s="3">
-        <v>-160000</v>
+        <v>-260800</v>
       </c>
       <c r="G72" s="3">
-        <v>-16400</v>
+        <v>-162600</v>
       </c>
       <c r="H72" s="3">
-        <v>-19200</v>
+        <v>-16600</v>
       </c>
       <c r="I72" s="3">
-        <v>-42000</v>
+        <v>-19600</v>
       </c>
       <c r="J72" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-68900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>673300</v>
+        <v>562500</v>
       </c>
       <c r="E76" s="3">
-        <v>882300</v>
+        <v>684600</v>
       </c>
       <c r="F76" s="3">
-        <v>99800</v>
+        <v>897100</v>
       </c>
       <c r="G76" s="3">
-        <v>238900</v>
+        <v>101500</v>
       </c>
       <c r="H76" s="3">
-        <v>265800</v>
+        <v>242900</v>
       </c>
       <c r="I76" s="3">
-        <v>239800</v>
+        <v>270300</v>
       </c>
       <c r="J76" s="3">
+        <v>243800</v>
+      </c>
+      <c r="K76" s="3">
         <v>225400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>210700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-219600</v>
+        <v>-143800</v>
       </c>
       <c r="E81" s="3">
-        <v>-96600</v>
+        <v>-223200</v>
       </c>
       <c r="F81" s="3">
-        <v>-143600</v>
+        <v>-98200</v>
       </c>
       <c r="G81" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="H81" s="3">
         <v>2900</v>
       </c>
-      <c r="H81" s="3">
-        <v>22800</v>
-      </c>
       <c r="I81" s="3">
-        <v>24100</v>
+        <v>23200</v>
       </c>
       <c r="J81" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>GOTU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,180 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>349500</v>
+        <v>201000</v>
       </c>
       <c r="E8" s="3">
-        <v>303800</v>
+        <v>175900</v>
       </c>
       <c r="F8" s="3">
-        <v>346200</v>
+        <v>352200</v>
       </c>
       <c r="G8" s="3">
-        <v>307800</v>
+        <v>306100</v>
       </c>
       <c r="H8" s="3">
-        <v>258400</v>
+        <v>348800</v>
       </c>
       <c r="I8" s="3">
+        <v>310100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>260400</v>
+      </c>
+      <c r="K8" s="3">
         <v>203200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>146400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>85800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>97200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>113400</v>
+        <v>61000</v>
       </c>
       <c r="E9" s="3">
-        <v>89500</v>
+        <v>112800</v>
       </c>
       <c r="F9" s="3">
-        <v>96500</v>
+        <v>114300</v>
       </c>
       <c r="G9" s="3">
-        <v>78600</v>
+        <v>90200</v>
       </c>
       <c r="H9" s="3">
-        <v>56500</v>
+        <v>97200</v>
       </c>
       <c r="I9" s="3">
+        <v>79200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K9" s="3">
         <v>44300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>30700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>24100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>236100</v>
+        <v>140000</v>
       </c>
       <c r="E10" s="3">
-        <v>214300</v>
+        <v>63100</v>
       </c>
       <c r="F10" s="3">
-        <v>249700</v>
+        <v>237900</v>
       </c>
       <c r="G10" s="3">
-        <v>229100</v>
+        <v>215900</v>
       </c>
       <c r="H10" s="3">
-        <v>201900</v>
+        <v>251600</v>
       </c>
       <c r="I10" s="3">
+        <v>230900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>203500</v>
+      </c>
+      <c r="K10" s="3">
         <v>158800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>115700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>61600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>68600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +851,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>66800</v>
+        <v>19700</v>
       </c>
       <c r="E12" s="3">
-        <v>57200</v>
+        <v>53100</v>
       </c>
       <c r="F12" s="3">
-        <v>43000</v>
+        <v>67300</v>
       </c>
       <c r="G12" s="3">
-        <v>34500</v>
+        <v>57600</v>
       </c>
       <c r="H12" s="3">
-        <v>21900</v>
+        <v>43300</v>
       </c>
       <c r="I12" s="3">
+        <v>34800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>22100</v>
+      </c>
+      <c r="K12" s="3">
         <v>15600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>13100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,40 +923,52 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-17200</v>
+        <v>2200</v>
       </c>
       <c r="E14" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G14" s="3">
         <v>-7000</v>
       </c>
-      <c r="F14" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="I14" s="3">
         <v>-8100</v>
       </c>
-      <c r="H14" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-9600</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>474400</v>
+        <v>160300</v>
       </c>
       <c r="E17" s="3">
-        <v>532000</v>
+        <v>326800</v>
       </c>
       <c r="F17" s="3">
-        <v>445300</v>
+        <v>478100</v>
       </c>
       <c r="G17" s="3">
-        <v>454700</v>
+        <v>536100</v>
       </c>
       <c r="H17" s="3">
-        <v>269600</v>
+        <v>448700</v>
       </c>
       <c r="I17" s="3">
+        <v>458200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>271700</v>
+      </c>
+      <c r="K17" s="3">
         <v>179100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>120100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>87400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-124900</v>
+        <v>40800</v>
       </c>
       <c r="E18" s="3">
-        <v>-228300</v>
+        <v>-150900</v>
       </c>
       <c r="F18" s="3">
-        <v>-99100</v>
+        <v>-125900</v>
       </c>
       <c r="G18" s="3">
-        <v>-147000</v>
+        <v>-230000</v>
       </c>
       <c r="H18" s="3">
-        <v>-11300</v>
+        <v>-99900</v>
       </c>
       <c r="I18" s="3">
+        <v>-148100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K18" s="3">
         <v>24000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>26200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,40 +1108,48 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10900</v>
+        <v>4300</v>
       </c>
       <c r="E20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J20" s="3">
         <v>3600</v>
       </c>
-      <c r="F20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1098,17 +1171,23 @@
       <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="3">
-        <v>30300</v>
+      <c r="J21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="3">
+        <v>30300</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1218,90 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-135900</v>
+        <v>45000</v>
       </c>
       <c r="E23" s="3">
-        <v>-224600</v>
+        <v>-164900</v>
       </c>
       <c r="F23" s="3">
-        <v>-97600</v>
+        <v>-136900</v>
       </c>
       <c r="G23" s="3">
-        <v>-144300</v>
+        <v>-226400</v>
       </c>
       <c r="H23" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-145400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-7700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>26100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>28500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>8100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K24" s="3">
         <v>2800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-143900</v>
+        <v>45100</v>
       </c>
       <c r="E26" s="3">
-        <v>-223100</v>
+        <v>-164800</v>
       </c>
       <c r="F26" s="3">
-        <v>-98500</v>
+        <v>-145000</v>
       </c>
       <c r="G26" s="3">
-        <v>-146000</v>
+        <v>-224800</v>
       </c>
       <c r="H26" s="3">
+        <v>-99200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="J26" s="3">
         <v>3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>23200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>27200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-143800</v>
+        <v>45100</v>
       </c>
       <c r="E27" s="3">
-        <v>-223200</v>
+        <v>-164800</v>
       </c>
       <c r="F27" s="3">
-        <v>-98200</v>
+        <v>-144900</v>
       </c>
       <c r="G27" s="3">
-        <v>-146000</v>
+        <v>-225000</v>
       </c>
       <c r="H27" s="3">
+        <v>-98900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="J27" s="3">
         <v>2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>23200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>24500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1560,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10900</v>
+        <v>-4300</v>
       </c>
       <c r="E32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-3600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-143800</v>
+        <v>45100</v>
       </c>
       <c r="E33" s="3">
-        <v>-223200</v>
+        <v>-164800</v>
       </c>
       <c r="F33" s="3">
-        <v>-98200</v>
+        <v>-144900</v>
       </c>
       <c r="G33" s="3">
-        <v>-146000</v>
+        <v>-225000</v>
       </c>
       <c r="H33" s="3">
+        <v>-98900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="J33" s="3">
         <v>2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>23200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>24500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-143800</v>
+        <v>45100</v>
       </c>
       <c r="E35" s="3">
-        <v>-223200</v>
+        <v>-164800</v>
       </c>
       <c r="F35" s="3">
-        <v>-98200</v>
+        <v>-144900</v>
       </c>
       <c r="G35" s="3">
-        <v>-146000</v>
+        <v>-225000</v>
       </c>
       <c r="H35" s="3">
+        <v>-98900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="J35" s="3">
         <v>2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>23200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>24500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,72 +1791,86 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>157400</v>
+        <v>115000</v>
       </c>
       <c r="E41" s="3">
-        <v>455700</v>
+        <v>121600</v>
       </c>
       <c r="F41" s="3">
-        <v>55600</v>
+        <v>158600</v>
       </c>
       <c r="G41" s="3">
-        <v>29400</v>
+        <v>459200</v>
       </c>
       <c r="H41" s="3">
-        <v>35300</v>
+        <v>56000</v>
       </c>
       <c r="I41" s="3">
+        <v>29600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K41" s="3">
         <v>88500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>618400</v>
+        <v>437600</v>
       </c>
       <c r="E42" s="3">
-        <v>383300</v>
+        <v>313000</v>
       </c>
       <c r="F42" s="3">
-        <v>1147800</v>
+        <v>623100</v>
       </c>
       <c r="G42" s="3">
-        <v>217200</v>
+        <v>386300</v>
       </c>
       <c r="H42" s="3">
-        <v>335700</v>
+        <v>1156600</v>
       </c>
       <c r="I42" s="3">
+        <v>218900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>338300</v>
+      </c>
+      <c r="K42" s="3">
         <v>157100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>230700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>156200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>263100</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,31 +1901,37 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>9800</v>
+        <v>2500</v>
       </c>
       <c r="E44" s="3">
-        <v>8000</v>
+        <v>3800</v>
       </c>
       <c r="F44" s="3">
-        <v>7500</v>
+        <v>9900</v>
       </c>
       <c r="G44" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="H44" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>10</v>
+        <v>7600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>10900</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>10</v>
@@ -1748,168 +1939,204 @@
       <c r="L44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>110200</v>
+        <v>66000</v>
       </c>
       <c r="E45" s="3">
-        <v>133800</v>
+        <v>192900</v>
       </c>
       <c r="F45" s="3">
-        <v>113100</v>
+        <v>111100</v>
       </c>
       <c r="G45" s="3">
-        <v>70200</v>
+        <v>134900</v>
       </c>
       <c r="H45" s="3">
-        <v>84500</v>
+        <v>114000</v>
       </c>
       <c r="I45" s="3">
+        <v>70700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>85200</v>
+      </c>
+      <c r="K45" s="3">
         <v>61400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>40900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>29000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>895800</v>
+        <v>621100</v>
       </c>
       <c r="E46" s="3">
-        <v>980900</v>
+        <v>631300</v>
       </c>
       <c r="F46" s="3">
-        <v>1324100</v>
+        <v>902700</v>
       </c>
       <c r="G46" s="3">
-        <v>324600</v>
+        <v>988400</v>
       </c>
       <c r="H46" s="3">
-        <v>466300</v>
+        <v>1334200</v>
       </c>
       <c r="I46" s="3">
+        <v>327100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>469900</v>
+      </c>
+      <c r="K46" s="3">
         <v>306900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>283200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>190200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>295600</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>81200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>82400</v>
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F47" s="3">
+        <v>81800</v>
+      </c>
+      <c r="G47" s="3">
         <v>83100</v>
       </c>
-      <c r="G47" s="3">
-        <v>87000</v>
-      </c>
       <c r="H47" s="3">
-        <v>89600</v>
+        <v>83700</v>
       </c>
       <c r="I47" s="3">
+        <v>87700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>90300</v>
+      </c>
+      <c r="K47" s="3">
         <v>183000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>186000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>163700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>268400</v>
+        <v>163100</v>
       </c>
       <c r="E48" s="3">
-        <v>257500</v>
+        <v>181700</v>
       </c>
       <c r="F48" s="3">
-        <v>236600</v>
+        <v>270500</v>
       </c>
       <c r="G48" s="3">
-        <v>213700</v>
+        <v>259500</v>
       </c>
       <c r="H48" s="3">
-        <v>174400</v>
+        <v>238400</v>
       </c>
       <c r="I48" s="3">
+        <v>215300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>175700</v>
+      </c>
+      <c r="K48" s="3">
         <v>141300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>54300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>41500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3">
         <v>4500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4500</v>
       </c>
-      <c r="F49" s="3">
-        <v>13400</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>10</v>
+      <c r="H49" s="3">
+        <v>13500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="3">
-        <v>100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>100</v>
+      <c r="J49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>100</v>
+      </c>
+      <c r="N49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2205,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F52" s="3">
         <v>8800</v>
       </c>
-      <c r="E52" s="3">
-        <v>25900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>15800</v>
-      </c>
       <c r="G52" s="3">
-        <v>32300</v>
+        <v>26100</v>
       </c>
       <c r="H52" s="3">
-        <v>35200</v>
+        <v>15900</v>
       </c>
       <c r="I52" s="3">
+        <v>32600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K52" s="3">
         <v>24400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1258600</v>
+        <v>792700</v>
       </c>
       <c r="E54" s="3">
-        <v>1351200</v>
+        <v>824700</v>
       </c>
       <c r="F54" s="3">
-        <v>1673000</v>
+        <v>1268300</v>
       </c>
       <c r="G54" s="3">
-        <v>657600</v>
+        <v>1361600</v>
       </c>
       <c r="H54" s="3">
-        <v>765500</v>
+        <v>1685800</v>
       </c>
       <c r="I54" s="3">
+        <v>662700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>771400</v>
+      </c>
+      <c r="K54" s="3">
         <v>655600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>531400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>404100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>340200</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2355,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2128,8 +2389,14 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,72 +2427,90 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>583000</v>
+        <v>277700</v>
       </c>
       <c r="E59" s="3">
-        <v>544100</v>
+        <v>347700</v>
       </c>
       <c r="F59" s="3">
-        <v>657100</v>
+        <v>587500</v>
       </c>
       <c r="G59" s="3">
-        <v>443200</v>
+        <v>548200</v>
       </c>
       <c r="H59" s="3">
-        <v>431800</v>
+        <v>662200</v>
       </c>
       <c r="I59" s="3">
+        <v>446600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>435100</v>
+      </c>
+      <c r="K59" s="3">
         <v>287400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>256300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>155200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>583000</v>
+        <v>277700</v>
       </c>
       <c r="E60" s="3">
-        <v>544100</v>
+        <v>347700</v>
       </c>
       <c r="F60" s="3">
-        <v>657100</v>
+        <v>587500</v>
       </c>
       <c r="G60" s="3">
-        <v>443200</v>
+        <v>548200</v>
       </c>
       <c r="H60" s="3">
-        <v>431800</v>
+        <v>662200</v>
       </c>
       <c r="I60" s="3">
+        <v>446600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>435100</v>
+      </c>
+      <c r="K60" s="3">
         <v>287400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>256300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>155200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,40 +2541,52 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>113100</v>
+        <v>60500</v>
       </c>
       <c r="E62" s="3">
-        <v>122500</v>
+        <v>71900</v>
       </c>
       <c r="F62" s="3">
-        <v>118800</v>
+        <v>114000</v>
       </c>
       <c r="G62" s="3">
-        <v>112900</v>
+        <v>123500</v>
       </c>
       <c r="H62" s="3">
-        <v>90800</v>
+        <v>119700</v>
       </c>
       <c r="I62" s="3">
+        <v>113800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>91500</v>
+      </c>
+      <c r="K62" s="3">
         <v>97900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>31300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>23400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>696100</v>
+        <v>338200</v>
       </c>
       <c r="E66" s="3">
-        <v>666600</v>
+        <v>419600</v>
       </c>
       <c r="F66" s="3">
-        <v>775900</v>
+        <v>701500</v>
       </c>
       <c r="G66" s="3">
-        <v>556200</v>
+        <v>671700</v>
       </c>
       <c r="H66" s="3">
-        <v>522600</v>
+        <v>781800</v>
       </c>
       <c r="I66" s="3">
+        <v>560400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>526600</v>
+      </c>
+      <c r="K66" s="3">
         <v>385300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>287600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>178700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-627900</v>
+        <v>-752400</v>
       </c>
       <c r="E72" s="3">
-        <v>-484000</v>
+        <v>-797500</v>
       </c>
       <c r="F72" s="3">
-        <v>-260800</v>
+        <v>-632700</v>
       </c>
       <c r="G72" s="3">
-        <v>-162600</v>
+        <v>-487800</v>
       </c>
       <c r="H72" s="3">
-        <v>-16600</v>
+        <v>-262800</v>
       </c>
       <c r="I72" s="3">
+        <v>-163900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-19600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-42700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-68900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>562500</v>
+        <v>454500</v>
       </c>
       <c r="E76" s="3">
-        <v>684600</v>
+        <v>405100</v>
       </c>
       <c r="F76" s="3">
-        <v>897100</v>
+        <v>566800</v>
       </c>
       <c r="G76" s="3">
-        <v>101500</v>
+        <v>689900</v>
       </c>
       <c r="H76" s="3">
-        <v>242900</v>
+        <v>903900</v>
       </c>
       <c r="I76" s="3">
+        <v>102300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>244800</v>
+      </c>
+      <c r="K76" s="3">
         <v>270300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>243800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>225400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>210700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-143800</v>
+        <v>45100</v>
       </c>
       <c r="E81" s="3">
-        <v>-223200</v>
+        <v>-164800</v>
       </c>
       <c r="F81" s="3">
-        <v>-98200</v>
+        <v>-144900</v>
       </c>
       <c r="G81" s="3">
-        <v>-146000</v>
+        <v>-225000</v>
       </c>
       <c r="H81" s="3">
+        <v>-98900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="J81" s="3">
         <v>2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>23200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>24500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3228,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3262,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3452,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3057,8 +3490,14 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3510,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3544,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3620,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3199,8 +3658,14 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3826,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3373,8 +3864,14 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3902,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3435,6 +3938,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>GOTU</t>
   </si>
@@ -729,25 +729,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>201000</v>
+        <v>187800</v>
       </c>
       <c r="E8" s="3">
-        <v>175900</v>
+        <v>164300</v>
       </c>
       <c r="F8" s="3">
-        <v>352200</v>
+        <v>329000</v>
       </c>
       <c r="G8" s="3">
-        <v>306100</v>
+        <v>285900</v>
       </c>
       <c r="H8" s="3">
-        <v>348800</v>
+        <v>325800</v>
       </c>
       <c r="I8" s="3">
-        <v>310100</v>
+        <v>289700</v>
       </c>
       <c r="J8" s="3">
-        <v>260400</v>
+        <v>243200</v>
       </c>
       <c r="K8" s="3">
         <v>203200</v>
@@ -767,25 +767,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>61000</v>
+        <v>57000</v>
       </c>
       <c r="E9" s="3">
-        <v>112800</v>
+        <v>105400</v>
       </c>
       <c r="F9" s="3">
-        <v>114300</v>
+        <v>106700</v>
       </c>
       <c r="G9" s="3">
-        <v>90200</v>
+        <v>84200</v>
       </c>
       <c r="H9" s="3">
-        <v>97200</v>
+        <v>90800</v>
       </c>
       <c r="I9" s="3">
-        <v>79200</v>
+        <v>74000</v>
       </c>
       <c r="J9" s="3">
-        <v>56900</v>
+        <v>53100</v>
       </c>
       <c r="K9" s="3">
         <v>44300</v>
@@ -805,25 +805,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>140000</v>
+        <v>130800</v>
       </c>
       <c r="E10" s="3">
-        <v>63100</v>
+        <v>58900</v>
       </c>
       <c r="F10" s="3">
-        <v>237900</v>
+        <v>222200</v>
       </c>
       <c r="G10" s="3">
-        <v>215900</v>
+        <v>201700</v>
       </c>
       <c r="H10" s="3">
-        <v>251600</v>
+        <v>235000</v>
       </c>
       <c r="I10" s="3">
-        <v>230900</v>
+        <v>215700</v>
       </c>
       <c r="J10" s="3">
-        <v>203500</v>
+        <v>190000</v>
       </c>
       <c r="K10" s="3">
         <v>158800</v>
@@ -859,25 +859,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19700</v>
+        <v>18400</v>
       </c>
       <c r="E12" s="3">
-        <v>53100</v>
+        <v>49600</v>
       </c>
       <c r="F12" s="3">
-        <v>67300</v>
+        <v>62800</v>
       </c>
       <c r="G12" s="3">
-        <v>57600</v>
+        <v>53800</v>
       </c>
       <c r="H12" s="3">
-        <v>43300</v>
+        <v>40500</v>
       </c>
       <c r="I12" s="3">
-        <v>34800</v>
+        <v>32500</v>
       </c>
       <c r="J12" s="3">
-        <v>22100</v>
+        <v>20600</v>
       </c>
       <c r="K12" s="3">
         <v>15600</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E14" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="F14" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-7000</v>
+        <v>7800</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
-        <v>-9900</v>
+        <v>-9300</v>
       </c>
       <c r="I14" s="3">
-        <v>-8100</v>
+        <v>-7600</v>
       </c>
       <c r="J14" s="3">
-        <v>-14000</v>
+        <v>-13100</v>
       </c>
       <c r="K14" s="3">
         <v>-9600</v>
@@ -1024,25 +1024,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>160300</v>
+        <v>149700</v>
       </c>
       <c r="E17" s="3">
-        <v>326800</v>
+        <v>323600</v>
       </c>
       <c r="F17" s="3">
-        <v>478100</v>
+        <v>446500</v>
       </c>
       <c r="G17" s="3">
-        <v>536100</v>
+        <v>500800</v>
       </c>
       <c r="H17" s="3">
-        <v>448700</v>
+        <v>419100</v>
       </c>
       <c r="I17" s="3">
-        <v>458200</v>
+        <v>428000</v>
       </c>
       <c r="J17" s="3">
-        <v>271700</v>
+        <v>253800</v>
       </c>
       <c r="K17" s="3">
         <v>179100</v>
@@ -1062,25 +1062,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>40800</v>
+        <v>38100</v>
       </c>
       <c r="E18" s="3">
-        <v>-150900</v>
+        <v>-159300</v>
       </c>
       <c r="F18" s="3">
-        <v>-125900</v>
+        <v>-117600</v>
       </c>
       <c r="G18" s="3">
-        <v>-230000</v>
+        <v>-214900</v>
       </c>
       <c r="H18" s="3">
-        <v>-99900</v>
+        <v>-93300</v>
       </c>
       <c r="I18" s="3">
-        <v>-148100</v>
+        <v>-138300</v>
       </c>
       <c r="J18" s="3">
-        <v>-11400</v>
+        <v>-10600</v>
       </c>
       <c r="K18" s="3">
         <v>24000</v>
@@ -1116,25 +1116,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="E20" s="3">
-        <v>-14000</v>
+        <v>5300</v>
       </c>
       <c r="F20" s="3">
-        <v>-11000</v>
+        <v>-10300</v>
       </c>
       <c r="G20" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="H20" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I20" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="J20" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="K20" s="3">
         <v>2100</v>
@@ -1230,25 +1230,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>45000</v>
+        <v>42100</v>
       </c>
       <c r="E23" s="3">
-        <v>-164900</v>
+        <v>-154000</v>
       </c>
       <c r="F23" s="3">
-        <v>-136900</v>
+        <v>-127900</v>
       </c>
       <c r="G23" s="3">
-        <v>-226400</v>
+        <v>-211400</v>
       </c>
       <c r="H23" s="3">
-        <v>-98300</v>
+        <v>-91900</v>
       </c>
       <c r="I23" s="3">
-        <v>-145400</v>
+        <v>-135800</v>
       </c>
       <c r="J23" s="3">
-        <v>-7700</v>
+        <v>-7200</v>
       </c>
       <c r="K23" s="3">
         <v>26100</v>
@@ -1274,19 +1274,19 @@
         <v>-100</v>
       </c>
       <c r="F24" s="3">
-        <v>8100</v>
+        <v>7600</v>
       </c>
       <c r="G24" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H24" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I24" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J24" s="3">
-        <v>-10800</v>
+        <v>-10100</v>
       </c>
       <c r="K24" s="3">
         <v>2800</v>
@@ -1344,25 +1344,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>45100</v>
+        <v>42100</v>
       </c>
       <c r="E26" s="3">
-        <v>-164800</v>
+        <v>-153900</v>
       </c>
       <c r="F26" s="3">
-        <v>-145000</v>
+        <v>-135500</v>
       </c>
       <c r="G26" s="3">
-        <v>-224800</v>
+        <v>-210000</v>
       </c>
       <c r="H26" s="3">
-        <v>-99200</v>
+        <v>-92700</v>
       </c>
       <c r="I26" s="3">
-        <v>-147100</v>
+        <v>-137400</v>
       </c>
       <c r="J26" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="K26" s="3">
         <v>23200</v>
@@ -1382,25 +1382,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>45100</v>
+        <v>42100</v>
       </c>
       <c r="E27" s="3">
-        <v>-164800</v>
+        <v>-153900</v>
       </c>
       <c r="F27" s="3">
-        <v>-144900</v>
+        <v>-135400</v>
       </c>
       <c r="G27" s="3">
-        <v>-225000</v>
+        <v>-210100</v>
       </c>
       <c r="H27" s="3">
-        <v>-98900</v>
+        <v>-92400</v>
       </c>
       <c r="I27" s="3">
-        <v>-147100</v>
+        <v>-137400</v>
       </c>
       <c r="J27" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="K27" s="3">
         <v>23200</v>
@@ -1572,25 +1572,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="E32" s="3">
-        <v>14000</v>
+        <v>-5300</v>
       </c>
       <c r="F32" s="3">
-        <v>11000</v>
+        <v>10300</v>
       </c>
       <c r="G32" s="3">
-        <v>-3700</v>
+        <v>-3400</v>
       </c>
       <c r="H32" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="I32" s="3">
-        <v>-2700</v>
+        <v>-2500</v>
       </c>
       <c r="J32" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="K32" s="3">
         <v>-2100</v>
@@ -1610,25 +1610,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>45100</v>
+        <v>42100</v>
       </c>
       <c r="E33" s="3">
-        <v>-164800</v>
+        <v>-153900</v>
       </c>
       <c r="F33" s="3">
-        <v>-144900</v>
+        <v>-135400</v>
       </c>
       <c r="G33" s="3">
-        <v>-225000</v>
+        <v>-210100</v>
       </c>
       <c r="H33" s="3">
-        <v>-98900</v>
+        <v>-92400</v>
       </c>
       <c r="I33" s="3">
-        <v>-147100</v>
+        <v>-137400</v>
       </c>
       <c r="J33" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="K33" s="3">
         <v>23200</v>
@@ -1686,25 +1686,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>45100</v>
+        <v>42100</v>
       </c>
       <c r="E35" s="3">
-        <v>-164800</v>
+        <v>-153900</v>
       </c>
       <c r="F35" s="3">
-        <v>-144900</v>
+        <v>-135400</v>
       </c>
       <c r="G35" s="3">
-        <v>-225000</v>
+        <v>-210100</v>
       </c>
       <c r="H35" s="3">
-        <v>-98900</v>
+        <v>-92400</v>
       </c>
       <c r="I35" s="3">
-        <v>-147100</v>
+        <v>-137400</v>
       </c>
       <c r="J35" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="K35" s="3">
         <v>23200</v>
@@ -1799,25 +1799,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>115000</v>
+        <v>107400</v>
       </c>
       <c r="E41" s="3">
-        <v>121600</v>
+        <v>113500</v>
       </c>
       <c r="F41" s="3">
-        <v>158600</v>
+        <v>148100</v>
       </c>
       <c r="G41" s="3">
-        <v>459200</v>
+        <v>428900</v>
       </c>
       <c r="H41" s="3">
-        <v>56000</v>
+        <v>52300</v>
       </c>
       <c r="I41" s="3">
-        <v>29600</v>
+        <v>27700</v>
       </c>
       <c r="J41" s="3">
-        <v>35500</v>
+        <v>33200</v>
       </c>
       <c r="K41" s="3">
         <v>88500</v>
@@ -1837,25 +1837,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>437600</v>
+        <v>408800</v>
       </c>
       <c r="E42" s="3">
-        <v>313000</v>
+        <v>292400</v>
       </c>
       <c r="F42" s="3">
-        <v>623100</v>
+        <v>582000</v>
       </c>
       <c r="G42" s="3">
-        <v>386300</v>
+        <v>360800</v>
       </c>
       <c r="H42" s="3">
-        <v>1156600</v>
+        <v>1080300</v>
       </c>
       <c r="I42" s="3">
-        <v>218900</v>
+        <v>204400</v>
       </c>
       <c r="J42" s="3">
-        <v>338300</v>
+        <v>316000</v>
       </c>
       <c r="K42" s="3">
         <v>157100</v>
@@ -1913,25 +1913,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E44" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="F44" s="3">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="G44" s="3">
-        <v>8100</v>
+        <v>7600</v>
       </c>
       <c r="H44" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="I44" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="J44" s="3">
-        <v>10900</v>
+        <v>10200</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>10</v>
@@ -1951,25 +1951,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>66000</v>
+        <v>61600</v>
       </c>
       <c r="E45" s="3">
-        <v>192900</v>
+        <v>180200</v>
       </c>
       <c r="F45" s="3">
-        <v>111100</v>
+        <v>103800</v>
       </c>
       <c r="G45" s="3">
-        <v>134900</v>
+        <v>126000</v>
       </c>
       <c r="H45" s="3">
-        <v>114000</v>
+        <v>106500</v>
       </c>
       <c r="I45" s="3">
-        <v>70700</v>
+        <v>66100</v>
       </c>
       <c r="J45" s="3">
-        <v>85200</v>
+        <v>79500</v>
       </c>
       <c r="K45" s="3">
         <v>61400</v>
@@ -1989,25 +1989,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>621100</v>
+        <v>580100</v>
       </c>
       <c r="E46" s="3">
-        <v>631300</v>
+        <v>589600</v>
       </c>
       <c r="F46" s="3">
-        <v>902700</v>
+        <v>843200</v>
       </c>
       <c r="G46" s="3">
-        <v>988400</v>
+        <v>923300</v>
       </c>
       <c r="H46" s="3">
-        <v>1334200</v>
+        <v>1246300</v>
       </c>
       <c r="I46" s="3">
-        <v>327100</v>
+        <v>305500</v>
       </c>
       <c r="J46" s="3">
-        <v>469900</v>
+        <v>438900</v>
       </c>
       <c r="K46" s="3">
         <v>306900</v>
@@ -2026,26 +2026,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="3">
-        <v>81800</v>
+        <v>76400</v>
       </c>
       <c r="G47" s="3">
-        <v>83100</v>
+        <v>77600</v>
       </c>
       <c r="H47" s="3">
-        <v>83700</v>
+        <v>78200</v>
       </c>
       <c r="I47" s="3">
-        <v>87700</v>
+        <v>81900</v>
       </c>
       <c r="J47" s="3">
-        <v>90300</v>
+        <v>84300</v>
       </c>
       <c r="K47" s="3">
         <v>183000</v>
@@ -2065,25 +2065,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>163100</v>
+        <v>152400</v>
       </c>
       <c r="E48" s="3">
-        <v>181700</v>
+        <v>169700</v>
       </c>
       <c r="F48" s="3">
-        <v>270500</v>
+        <v>252600</v>
       </c>
       <c r="G48" s="3">
-        <v>259500</v>
+        <v>242400</v>
       </c>
       <c r="H48" s="3">
-        <v>238400</v>
+        <v>222700</v>
       </c>
       <c r="I48" s="3">
-        <v>215300</v>
+        <v>201100</v>
       </c>
       <c r="J48" s="3">
-        <v>175700</v>
+        <v>164200</v>
       </c>
       <c r="K48" s="3">
         <v>141300</v>
@@ -2102,20 +2102,20 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>10</v>
+      <c r="D49" s="3">
+        <v>100</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="G49" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="H49" s="3">
-        <v>13500</v>
+        <v>12600</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>10</v>
@@ -2217,25 +2217,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="E52" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="F52" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="G52" s="3">
-        <v>26100</v>
+        <v>24300</v>
       </c>
       <c r="H52" s="3">
-        <v>15900</v>
+        <v>14900</v>
       </c>
       <c r="I52" s="3">
-        <v>32600</v>
+        <v>30400</v>
       </c>
       <c r="J52" s="3">
-        <v>35500</v>
+        <v>33200</v>
       </c>
       <c r="K52" s="3">
         <v>24400</v>
@@ -2293,25 +2293,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>792700</v>
+        <v>740400</v>
       </c>
       <c r="E54" s="3">
-        <v>824700</v>
+        <v>770300</v>
       </c>
       <c r="F54" s="3">
-        <v>1268300</v>
+        <v>1184700</v>
       </c>
       <c r="G54" s="3">
-        <v>1361600</v>
+        <v>1271800</v>
       </c>
       <c r="H54" s="3">
-        <v>1685800</v>
+        <v>1574700</v>
       </c>
       <c r="I54" s="3">
-        <v>662700</v>
+        <v>619000</v>
       </c>
       <c r="J54" s="3">
-        <v>771400</v>
+        <v>720500</v>
       </c>
       <c r="K54" s="3">
         <v>655600</v>
@@ -2439,25 +2439,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>277700</v>
+        <v>259400</v>
       </c>
       <c r="E59" s="3">
-        <v>347700</v>
+        <v>324800</v>
       </c>
       <c r="F59" s="3">
-        <v>587500</v>
+        <v>548700</v>
       </c>
       <c r="G59" s="3">
-        <v>548200</v>
+        <v>512100</v>
       </c>
       <c r="H59" s="3">
-        <v>662200</v>
+        <v>618500</v>
       </c>
       <c r="I59" s="3">
-        <v>446600</v>
+        <v>417200</v>
       </c>
       <c r="J59" s="3">
-        <v>435100</v>
+        <v>406400</v>
       </c>
       <c r="K59" s="3">
         <v>287400</v>
@@ -2477,25 +2477,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>277700</v>
+        <v>259400</v>
       </c>
       <c r="E60" s="3">
-        <v>347700</v>
+        <v>324800</v>
       </c>
       <c r="F60" s="3">
-        <v>587500</v>
+        <v>548700</v>
       </c>
       <c r="G60" s="3">
-        <v>548200</v>
+        <v>512100</v>
       </c>
       <c r="H60" s="3">
-        <v>662200</v>
+        <v>618500</v>
       </c>
       <c r="I60" s="3">
-        <v>446600</v>
+        <v>417200</v>
       </c>
       <c r="J60" s="3">
-        <v>435100</v>
+        <v>406400</v>
       </c>
       <c r="K60" s="3">
         <v>287400</v>
@@ -2553,25 +2553,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>60500</v>
+        <v>56500</v>
       </c>
       <c r="E62" s="3">
-        <v>71900</v>
+        <v>67200</v>
       </c>
       <c r="F62" s="3">
-        <v>114000</v>
+        <v>106500</v>
       </c>
       <c r="G62" s="3">
-        <v>123500</v>
+        <v>115300</v>
       </c>
       <c r="H62" s="3">
-        <v>119700</v>
+        <v>111800</v>
       </c>
       <c r="I62" s="3">
-        <v>113800</v>
+        <v>106300</v>
       </c>
       <c r="J62" s="3">
-        <v>91500</v>
+        <v>85500</v>
       </c>
       <c r="K62" s="3">
         <v>97900</v>
@@ -2705,25 +2705,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>338200</v>
+        <v>315900</v>
       </c>
       <c r="E66" s="3">
-        <v>419600</v>
+        <v>391900</v>
       </c>
       <c r="F66" s="3">
-        <v>701500</v>
+        <v>655200</v>
       </c>
       <c r="G66" s="3">
-        <v>671700</v>
+        <v>627400</v>
       </c>
       <c r="H66" s="3">
-        <v>781800</v>
+        <v>730300</v>
       </c>
       <c r="I66" s="3">
-        <v>560400</v>
+        <v>523500</v>
       </c>
       <c r="J66" s="3">
-        <v>526600</v>
+        <v>491900</v>
       </c>
       <c r="K66" s="3">
         <v>385300</v>
@@ -2911,25 +2911,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-752400</v>
+        <v>-702800</v>
       </c>
       <c r="E72" s="3">
-        <v>-797500</v>
+        <v>-744900</v>
       </c>
       <c r="F72" s="3">
-        <v>-632700</v>
+        <v>-591000</v>
       </c>
       <c r="G72" s="3">
-        <v>-487800</v>
+        <v>-455600</v>
       </c>
       <c r="H72" s="3">
-        <v>-262800</v>
+        <v>-245500</v>
       </c>
       <c r="I72" s="3">
-        <v>-163900</v>
+        <v>-153100</v>
       </c>
       <c r="J72" s="3">
-        <v>-16800</v>
+        <v>-15700</v>
       </c>
       <c r="K72" s="3">
         <v>-19600</v>
@@ -3063,25 +3063,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>454500</v>
+        <v>424500</v>
       </c>
       <c r="E76" s="3">
-        <v>405100</v>
+        <v>378400</v>
       </c>
       <c r="F76" s="3">
-        <v>566800</v>
+        <v>529500</v>
       </c>
       <c r="G76" s="3">
-        <v>689900</v>
+        <v>644400</v>
       </c>
       <c r="H76" s="3">
-        <v>903900</v>
+        <v>844400</v>
       </c>
       <c r="I76" s="3">
-        <v>102300</v>
+        <v>95500</v>
       </c>
       <c r="J76" s="3">
-        <v>244800</v>
+        <v>228700</v>
       </c>
       <c r="K76" s="3">
         <v>270300</v>
@@ -3182,25 +3182,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>45100</v>
+        <v>42100</v>
       </c>
       <c r="E81" s="3">
-        <v>-164800</v>
+        <v>-153900</v>
       </c>
       <c r="F81" s="3">
-        <v>-144900</v>
+        <v>-135400</v>
       </c>
       <c r="G81" s="3">
-        <v>-225000</v>
+        <v>-210100</v>
       </c>
       <c r="H81" s="3">
-        <v>-98900</v>
+        <v>-92400</v>
       </c>
       <c r="I81" s="3">
-        <v>-147100</v>
+        <v>-137400</v>
       </c>
       <c r="J81" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="K81" s="3">
         <v>23200</v>

--- a/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>GOTU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>187800</v>
+        <v>105800</v>
       </c>
       <c r="E8" s="3">
-        <v>164300</v>
+        <v>186100</v>
       </c>
       <c r="F8" s="3">
-        <v>329000</v>
+        <v>162800</v>
       </c>
       <c r="G8" s="3">
-        <v>285900</v>
+        <v>326000</v>
       </c>
       <c r="H8" s="3">
-        <v>325800</v>
+        <v>283300</v>
       </c>
       <c r="I8" s="3">
-        <v>289700</v>
+        <v>322900</v>
       </c>
       <c r="J8" s="3">
+        <v>287100</v>
+      </c>
+      <c r="K8" s="3">
         <v>243200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>203200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>146400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>85800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>97200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>57000</v>
+        <v>31100</v>
       </c>
       <c r="E9" s="3">
-        <v>105400</v>
+        <v>56500</v>
       </c>
       <c r="F9" s="3">
-        <v>106700</v>
+        <v>104400</v>
       </c>
       <c r="G9" s="3">
-        <v>84200</v>
+        <v>105800</v>
       </c>
       <c r="H9" s="3">
-        <v>90800</v>
+        <v>83500</v>
       </c>
       <c r="I9" s="3">
-        <v>74000</v>
+        <v>90000</v>
       </c>
       <c r="J9" s="3">
+        <v>73300</v>
+      </c>
+      <c r="K9" s="3">
         <v>53100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>30700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>24100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>130800</v>
+        <v>74700</v>
       </c>
       <c r="E10" s="3">
-        <v>58900</v>
+        <v>129600</v>
       </c>
       <c r="F10" s="3">
-        <v>222200</v>
+        <v>58400</v>
       </c>
       <c r="G10" s="3">
-        <v>201700</v>
+        <v>220200</v>
       </c>
       <c r="H10" s="3">
-        <v>235000</v>
+        <v>199900</v>
       </c>
       <c r="I10" s="3">
-        <v>215700</v>
+        <v>232900</v>
       </c>
       <c r="J10" s="3">
+        <v>213700</v>
+      </c>
+      <c r="K10" s="3">
         <v>190000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>158800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>115700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>61600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>68600</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>18400</v>
+        <v>18000</v>
       </c>
       <c r="E12" s="3">
-        <v>49600</v>
+        <v>18300</v>
       </c>
       <c r="F12" s="3">
-        <v>62800</v>
+        <v>49100</v>
       </c>
       <c r="G12" s="3">
-        <v>53800</v>
+        <v>62300</v>
       </c>
       <c r="H12" s="3">
-        <v>40500</v>
+        <v>53300</v>
       </c>
       <c r="I12" s="3">
-        <v>32500</v>
+        <v>40100</v>
       </c>
       <c r="J12" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K12" s="3">
         <v>20600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,37 +946,40 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7800</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>-9300</v>
-      </c>
       <c r="I14" s="3">
-        <v>-7600</v>
+        <v>-9200</v>
       </c>
       <c r="J14" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-13100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-9600</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -967,8 +987,11 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>149700</v>
+        <v>102100</v>
       </c>
       <c r="E17" s="3">
-        <v>323600</v>
+        <v>148400</v>
       </c>
       <c r="F17" s="3">
-        <v>446500</v>
+        <v>320700</v>
       </c>
       <c r="G17" s="3">
-        <v>500800</v>
+        <v>450800</v>
       </c>
       <c r="H17" s="3">
-        <v>419100</v>
+        <v>502800</v>
       </c>
       <c r="I17" s="3">
-        <v>428000</v>
+        <v>415300</v>
       </c>
       <c r="J17" s="3">
+        <v>424100</v>
+      </c>
+      <c r="K17" s="3">
         <v>253800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>179100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>120100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>87400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>38100</v>
+        <v>3700</v>
       </c>
       <c r="E18" s="3">
-        <v>-159300</v>
+        <v>37700</v>
       </c>
       <c r="F18" s="3">
-        <v>-117600</v>
+        <v>-157900</v>
       </c>
       <c r="G18" s="3">
-        <v>-214900</v>
+        <v>-124800</v>
       </c>
       <c r="H18" s="3">
-        <v>-93300</v>
+        <v>-219400</v>
       </c>
       <c r="I18" s="3">
-        <v>-138300</v>
+        <v>-92500</v>
       </c>
       <c r="J18" s="3">
+        <v>-137100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-10600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>24000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,46 +1143,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E20" s="3">
         <v>4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5300</v>
       </c>
-      <c r="F20" s="3">
-        <v>-10300</v>
-      </c>
       <c r="G20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K20" s="3">
         <v>3400</v>
       </c>
-      <c r="H20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3400</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1177,17 +1214,20 @@
       <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="3">
         <v>30300</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,84 +1264,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>42100</v>
+        <v>10600</v>
       </c>
       <c r="E23" s="3">
-        <v>-154000</v>
+        <v>41700</v>
       </c>
       <c r="F23" s="3">
-        <v>-127900</v>
+        <v>-152600</v>
       </c>
       <c r="G23" s="3">
-        <v>-211400</v>
+        <v>-126700</v>
       </c>
       <c r="H23" s="3">
-        <v>-91900</v>
+        <v>-209500</v>
       </c>
       <c r="I23" s="3">
-        <v>-135800</v>
+        <v>-91000</v>
       </c>
       <c r="J23" s="3">
+        <v>-134600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>28500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>2800</v>
       </c>
       <c r="E24" s="3">
         <v>-100</v>
       </c>
       <c r="F24" s="3">
-        <v>7600</v>
+        <v>-100</v>
       </c>
       <c r="G24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-10100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>42100</v>
+        <v>7800</v>
       </c>
       <c r="E26" s="3">
-        <v>-153900</v>
+        <v>41700</v>
       </c>
       <c r="F26" s="3">
-        <v>-135500</v>
+        <v>-152500</v>
       </c>
       <c r="G26" s="3">
-        <v>-210000</v>
+        <v>-134300</v>
       </c>
       <c r="H26" s="3">
-        <v>-92700</v>
+        <v>-208100</v>
       </c>
       <c r="I26" s="3">
-        <v>-137400</v>
+        <v>-91800</v>
       </c>
       <c r="J26" s="3">
+        <v>-136100</v>
+      </c>
+      <c r="K26" s="3">
         <v>2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>42100</v>
+        <v>7800</v>
       </c>
       <c r="E27" s="3">
-        <v>-153900</v>
+        <v>41700</v>
       </c>
       <c r="F27" s="3">
-        <v>-135400</v>
+        <v>-152500</v>
       </c>
       <c r="G27" s="3">
-        <v>-210100</v>
+        <v>-134200</v>
       </c>
       <c r="H27" s="3">
-        <v>-92400</v>
+        <v>-208200</v>
       </c>
       <c r="I27" s="3">
-        <v>-137400</v>
+        <v>-91600</v>
       </c>
       <c r="J27" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="K27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5300</v>
       </c>
-      <c r="F32" s="3">
-        <v>10300</v>
-      </c>
       <c r="G32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>42100</v>
+        <v>7800</v>
       </c>
       <c r="E33" s="3">
-        <v>-153900</v>
+        <v>41700</v>
       </c>
       <c r="F33" s="3">
-        <v>-135400</v>
+        <v>-152500</v>
       </c>
       <c r="G33" s="3">
-        <v>-210100</v>
+        <v>-134200</v>
       </c>
       <c r="H33" s="3">
-        <v>-92400</v>
+        <v>-208200</v>
       </c>
       <c r="I33" s="3">
-        <v>-137400</v>
+        <v>-91600</v>
       </c>
       <c r="J33" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="K33" s="3">
         <v>2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>42100</v>
+        <v>7800</v>
       </c>
       <c r="E35" s="3">
-        <v>-153900</v>
+        <v>41700</v>
       </c>
       <c r="F35" s="3">
-        <v>-135400</v>
+        <v>-152500</v>
       </c>
       <c r="G35" s="3">
-        <v>-210100</v>
+        <v>-134200</v>
       </c>
       <c r="H35" s="3">
-        <v>-92400</v>
+        <v>-208200</v>
       </c>
       <c r="I35" s="3">
-        <v>-137400</v>
+        <v>-91600</v>
       </c>
       <c r="J35" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="K35" s="3">
         <v>2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,84 +1879,91 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>107400</v>
+        <v>141400</v>
       </c>
       <c r="E41" s="3">
-        <v>113500</v>
+        <v>106400</v>
       </c>
       <c r="F41" s="3">
-        <v>148100</v>
+        <v>112500</v>
       </c>
       <c r="G41" s="3">
-        <v>428900</v>
+        <v>146800</v>
       </c>
       <c r="H41" s="3">
-        <v>52300</v>
+        <v>425000</v>
       </c>
       <c r="I41" s="3">
-        <v>27700</v>
+        <v>51900</v>
       </c>
       <c r="J41" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K41" s="3">
         <v>33200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>88500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>408800</v>
+        <v>325200</v>
       </c>
       <c r="E42" s="3">
-        <v>292400</v>
+        <v>405100</v>
       </c>
       <c r="F42" s="3">
-        <v>582000</v>
+        <v>289700</v>
       </c>
       <c r="G42" s="3">
-        <v>360800</v>
+        <v>576800</v>
       </c>
       <c r="H42" s="3">
-        <v>1080300</v>
+        <v>357600</v>
       </c>
       <c r="I42" s="3">
-        <v>204400</v>
+        <v>1070600</v>
       </c>
       <c r="J42" s="3">
+        <v>202600</v>
+      </c>
+      <c r="K42" s="3">
         <v>316000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>157100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>230700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>156200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>263100</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,34 +2000,37 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E44" s="3">
         <v>2300</v>
       </c>
-      <c r="E44" s="3">
-        <v>3600</v>
-      </c>
       <c r="F44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G44" s="3">
         <v>9200</v>
       </c>
-      <c r="G44" s="3">
-        <v>7600</v>
-      </c>
       <c r="H44" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="I44" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="J44" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K44" s="3">
         <v>10200</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>10</v>
@@ -1945,84 +2041,93 @@
       <c r="N44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>61600</v>
+        <v>46900</v>
       </c>
       <c r="E45" s="3">
-        <v>180200</v>
+        <v>61100</v>
       </c>
       <c r="F45" s="3">
-        <v>103800</v>
+        <v>178500</v>
       </c>
       <c r="G45" s="3">
-        <v>126000</v>
+        <v>102800</v>
       </c>
       <c r="H45" s="3">
-        <v>106500</v>
+        <v>124800</v>
       </c>
       <c r="I45" s="3">
-        <v>66100</v>
+        <v>105500</v>
       </c>
       <c r="J45" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K45" s="3">
         <v>79500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>580100</v>
+        <v>516200</v>
       </c>
       <c r="E46" s="3">
-        <v>589600</v>
+        <v>574900</v>
       </c>
       <c r="F46" s="3">
-        <v>843200</v>
+        <v>584300</v>
       </c>
       <c r="G46" s="3">
-        <v>923300</v>
+        <v>835600</v>
       </c>
       <c r="H46" s="3">
-        <v>1246300</v>
+        <v>914900</v>
       </c>
       <c r="I46" s="3">
-        <v>305500</v>
+        <v>1235000</v>
       </c>
       <c r="J46" s="3">
+        <v>302800</v>
+      </c>
+      <c r="K46" s="3">
         <v>438900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>306900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>283200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>190200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>295600</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2032,93 +2137,99 @@
       <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="3">
-        <v>76400</v>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G47" s="3">
-        <v>77600</v>
+        <v>75700</v>
       </c>
       <c r="H47" s="3">
-        <v>78200</v>
+        <v>76900</v>
       </c>
       <c r="I47" s="3">
-        <v>81900</v>
+        <v>77500</v>
       </c>
       <c r="J47" s="3">
+        <v>81100</v>
+      </c>
+      <c r="K47" s="3">
         <v>84300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>183000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>186000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>163700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>152400</v>
+        <v>123400</v>
       </c>
       <c r="E48" s="3">
-        <v>169700</v>
+        <v>151000</v>
       </c>
       <c r="F48" s="3">
-        <v>252600</v>
+        <v>168200</v>
       </c>
       <c r="G48" s="3">
-        <v>242400</v>
+        <v>250400</v>
       </c>
       <c r="H48" s="3">
-        <v>222700</v>
+        <v>240200</v>
       </c>
       <c r="I48" s="3">
-        <v>201100</v>
+        <v>220600</v>
       </c>
       <c r="J48" s="3">
+        <v>199300</v>
+      </c>
+      <c r="K48" s="3">
         <v>164200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>141300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>54300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>41500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4200</v>
       </c>
       <c r="G49" s="3">
         <v>4200</v>
       </c>
       <c r="H49" s="3">
-        <v>12600</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
+        <v>4200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>12500</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>10</v>
@@ -2126,8 +2237,8 @@
       <c r="K49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L49" s="3">
-        <v>100</v>
+      <c r="L49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F52" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>24100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>14800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>30200</v>
+      </c>
+      <c r="K52" s="3">
+        <v>33200</v>
+      </c>
+      <c r="L52" s="3">
+        <v>24400</v>
+      </c>
+      <c r="M52" s="3">
         <v>7900</v>
       </c>
-      <c r="E52" s="3">
-        <v>11000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>8300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>24300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>14900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>30400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>33200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>24400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>7900</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>740400</v>
+        <v>647400</v>
       </c>
       <c r="E54" s="3">
-        <v>770300</v>
+        <v>733800</v>
       </c>
       <c r="F54" s="3">
-        <v>1184700</v>
+        <v>763400</v>
       </c>
       <c r="G54" s="3">
-        <v>1271800</v>
+        <v>1174000</v>
       </c>
       <c r="H54" s="3">
-        <v>1574700</v>
+        <v>1260300</v>
       </c>
       <c r="I54" s="3">
-        <v>619000</v>
+        <v>1560400</v>
       </c>
       <c r="J54" s="3">
+        <v>613400</v>
+      </c>
+      <c r="K54" s="3">
         <v>720500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>655600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>531400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>404100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>340200</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2395,8 +2526,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,84 +2567,93 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>259400</v>
+        <v>171700</v>
       </c>
       <c r="E59" s="3">
-        <v>324800</v>
+        <v>257100</v>
       </c>
       <c r="F59" s="3">
-        <v>548700</v>
+        <v>321800</v>
       </c>
       <c r="G59" s="3">
-        <v>512100</v>
+        <v>543800</v>
       </c>
       <c r="H59" s="3">
-        <v>618500</v>
+        <v>507500</v>
       </c>
       <c r="I59" s="3">
-        <v>417200</v>
+        <v>612900</v>
       </c>
       <c r="J59" s="3">
+        <v>413400</v>
+      </c>
+      <c r="K59" s="3">
         <v>406400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>287400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>256300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>155200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>259400</v>
+        <v>171700</v>
       </c>
       <c r="E60" s="3">
-        <v>324800</v>
+        <v>257100</v>
       </c>
       <c r="F60" s="3">
-        <v>548700</v>
+        <v>321800</v>
       </c>
       <c r="G60" s="3">
-        <v>512100</v>
+        <v>543800</v>
       </c>
       <c r="H60" s="3">
-        <v>618500</v>
+        <v>507500</v>
       </c>
       <c r="I60" s="3">
-        <v>417200</v>
+        <v>612900</v>
       </c>
       <c r="J60" s="3">
+        <v>413400</v>
+      </c>
+      <c r="K60" s="3">
         <v>406400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>287400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>256300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>155200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,46 +2690,52 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>56500</v>
+        <v>42500</v>
       </c>
       <c r="E62" s="3">
-        <v>67200</v>
+        <v>56000</v>
       </c>
       <c r="F62" s="3">
-        <v>106500</v>
+        <v>66600</v>
       </c>
       <c r="G62" s="3">
-        <v>115300</v>
+        <v>105500</v>
       </c>
       <c r="H62" s="3">
-        <v>111800</v>
+        <v>114300</v>
       </c>
       <c r="I62" s="3">
-        <v>106300</v>
+        <v>110800</v>
       </c>
       <c r="J62" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K62" s="3">
         <v>85500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>97900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>31300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>315900</v>
+        <v>214200</v>
       </c>
       <c r="E66" s="3">
-        <v>391900</v>
+        <v>313000</v>
       </c>
       <c r="F66" s="3">
-        <v>655200</v>
+        <v>388400</v>
       </c>
       <c r="G66" s="3">
-        <v>627400</v>
+        <v>649300</v>
       </c>
       <c r="H66" s="3">
-        <v>730300</v>
+        <v>621800</v>
       </c>
       <c r="I66" s="3">
-        <v>523500</v>
+        <v>723700</v>
       </c>
       <c r="J66" s="3">
+        <v>518700</v>
+      </c>
+      <c r="K66" s="3">
         <v>491900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>385300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>287600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>178700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-702800</v>
+        <v>-688600</v>
       </c>
       <c r="E72" s="3">
-        <v>-744900</v>
+        <v>-696500</v>
       </c>
       <c r="F72" s="3">
-        <v>-591000</v>
+        <v>-738200</v>
       </c>
       <c r="G72" s="3">
-        <v>-455600</v>
+        <v>-585700</v>
       </c>
       <c r="H72" s="3">
-        <v>-245500</v>
+        <v>-451500</v>
       </c>
       <c r="I72" s="3">
-        <v>-153100</v>
+        <v>-243300</v>
       </c>
       <c r="J72" s="3">
+        <v>-151700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-15700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-42700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-68900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>424500</v>
+        <v>433200</v>
       </c>
       <c r="E76" s="3">
-        <v>378400</v>
+        <v>420700</v>
       </c>
       <c r="F76" s="3">
-        <v>529500</v>
+        <v>375000</v>
       </c>
       <c r="G76" s="3">
-        <v>644400</v>
+        <v>524700</v>
       </c>
       <c r="H76" s="3">
-        <v>844400</v>
+        <v>638600</v>
       </c>
       <c r="I76" s="3">
-        <v>95500</v>
+        <v>836700</v>
       </c>
       <c r="J76" s="3">
+        <v>94600</v>
+      </c>
+      <c r="K76" s="3">
         <v>228700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>270300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>243800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>225400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>210700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>42100</v>
+        <v>7800</v>
       </c>
       <c r="E81" s="3">
-        <v>-153900</v>
+        <v>41700</v>
       </c>
       <c r="F81" s="3">
-        <v>-135400</v>
+        <v>-152500</v>
       </c>
       <c r="G81" s="3">
-        <v>-210100</v>
+        <v>-134200</v>
       </c>
       <c r="H81" s="3">
-        <v>-92400</v>
+        <v>-208200</v>
       </c>
       <c r="I81" s="3">
-        <v>-137400</v>
+        <v>-91600</v>
       </c>
       <c r="J81" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="K81" s="3">
         <v>2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,8 +4157,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>GOTU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>105800</v>
+        <v>74900</v>
       </c>
       <c r="E8" s="3">
-        <v>186100</v>
+        <v>100900</v>
       </c>
       <c r="F8" s="3">
-        <v>162800</v>
+        <v>177400</v>
       </c>
       <c r="G8" s="3">
-        <v>326000</v>
+        <v>155200</v>
       </c>
       <c r="H8" s="3">
-        <v>283300</v>
+        <v>310700</v>
       </c>
       <c r="I8" s="3">
-        <v>322900</v>
+        <v>270100</v>
       </c>
       <c r="J8" s="3">
+        <v>307800</v>
+      </c>
+      <c r="K8" s="3">
         <v>287100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>243200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>203200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>146400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>85800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>97200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>31100</v>
+        <v>22300</v>
       </c>
       <c r="E9" s="3">
-        <v>56500</v>
+        <v>29600</v>
       </c>
       <c r="F9" s="3">
-        <v>104400</v>
+        <v>53800</v>
       </c>
       <c r="G9" s="3">
-        <v>105800</v>
+        <v>99600</v>
       </c>
       <c r="H9" s="3">
-        <v>83500</v>
+        <v>100800</v>
       </c>
       <c r="I9" s="3">
-        <v>90000</v>
+        <v>79600</v>
       </c>
       <c r="J9" s="3">
+        <v>85800</v>
+      </c>
+      <c r="K9" s="3">
         <v>73300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>53100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>44300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>30700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>24100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>74700</v>
+        <v>52600</v>
       </c>
       <c r="E10" s="3">
-        <v>129600</v>
+        <v>71200</v>
       </c>
       <c r="F10" s="3">
-        <v>58400</v>
+        <v>123600</v>
       </c>
       <c r="G10" s="3">
-        <v>220200</v>
+        <v>55600</v>
       </c>
       <c r="H10" s="3">
-        <v>199900</v>
+        <v>209900</v>
       </c>
       <c r="I10" s="3">
-        <v>232900</v>
+        <v>190500</v>
       </c>
       <c r="J10" s="3">
+        <v>222000</v>
+      </c>
+      <c r="K10" s="3">
         <v>213700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>190000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>158800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>115700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>61600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>68600</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="E12" s="3">
-        <v>18300</v>
+        <v>17200</v>
       </c>
       <c r="F12" s="3">
-        <v>49100</v>
+        <v>17400</v>
       </c>
       <c r="G12" s="3">
-        <v>62300</v>
+        <v>46800</v>
       </c>
       <c r="H12" s="3">
-        <v>53300</v>
+        <v>59400</v>
       </c>
       <c r="I12" s="3">
-        <v>40100</v>
+        <v>50800</v>
       </c>
       <c r="J12" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K12" s="3">
         <v>32200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,40 +966,43 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>2100</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
-        <v>4200</v>
+        <v>2000</v>
       </c>
       <c r="G14" s="3">
-        <v>7800</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>4000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>-9200</v>
-      </c>
       <c r="J14" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K14" s="3">
         <v>-7500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-13100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-9600</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>102100</v>
+        <v>83300</v>
       </c>
       <c r="E17" s="3">
-        <v>148400</v>
+        <v>97400</v>
       </c>
       <c r="F17" s="3">
-        <v>320700</v>
+        <v>141400</v>
       </c>
       <c r="G17" s="3">
-        <v>450800</v>
+        <v>305700</v>
       </c>
       <c r="H17" s="3">
-        <v>502800</v>
+        <v>429700</v>
       </c>
       <c r="I17" s="3">
-        <v>415300</v>
+        <v>479300</v>
       </c>
       <c r="J17" s="3">
+        <v>395900</v>
+      </c>
+      <c r="K17" s="3">
         <v>424100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>253800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>179100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>120100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>87400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3700</v>
+        <v>-8400</v>
       </c>
       <c r="E18" s="3">
-        <v>37700</v>
+        <v>3500</v>
       </c>
       <c r="F18" s="3">
-        <v>-157900</v>
+        <v>36000</v>
       </c>
       <c r="G18" s="3">
-        <v>-124800</v>
+        <v>-150500</v>
       </c>
       <c r="H18" s="3">
-        <v>-219400</v>
+        <v>-119000</v>
       </c>
       <c r="I18" s="3">
-        <v>-92500</v>
+        <v>-209200</v>
       </c>
       <c r="J18" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-137100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>24000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,49 +1177,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6900</v>
+        <v>1400</v>
       </c>
       <c r="E20" s="3">
-        <v>4000</v>
+        <v>6600</v>
       </c>
       <c r="F20" s="3">
-        <v>5300</v>
+        <v>3800</v>
       </c>
       <c r="G20" s="3">
-        <v>-1900</v>
+        <v>5000</v>
       </c>
       <c r="H20" s="3">
-        <v>9900</v>
+        <v>-1800</v>
       </c>
       <c r="I20" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1217,17 +1254,20 @@
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3">
         <v>30300</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10600</v>
+        <v>-7000</v>
       </c>
       <c r="E23" s="3">
-        <v>41700</v>
+        <v>10100</v>
       </c>
       <c r="F23" s="3">
-        <v>-152600</v>
+        <v>39700</v>
       </c>
       <c r="G23" s="3">
-        <v>-126700</v>
+        <v>-145500</v>
       </c>
       <c r="H23" s="3">
-        <v>-209500</v>
+        <v>-120800</v>
       </c>
       <c r="I23" s="3">
-        <v>-91000</v>
+        <v>-199700</v>
       </c>
       <c r="J23" s="3">
+        <v>-86800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-134600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>28500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2800</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
-        <v>-100</v>
+        <v>2600</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
       </c>
       <c r="G24" s="3">
-        <v>7500</v>
+        <v>-100</v>
       </c>
       <c r="H24" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-10100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>39800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-145400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-198400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-87500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-136100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M26" s="3">
+        <v>23200</v>
+      </c>
+      <c r="N26" s="3">
+        <v>27200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>200</v>
+      </c>
+      <c r="P26" s="3">
         <v>7800</v>
       </c>
-      <c r="E26" s="3">
-        <v>41700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-152500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-134300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-208100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-91800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-136100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>2900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>23200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>27200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7800</v>
+        <v>-6900</v>
       </c>
       <c r="E27" s="3">
-        <v>41700</v>
+        <v>7500</v>
       </c>
       <c r="F27" s="3">
-        <v>-152500</v>
+        <v>39800</v>
       </c>
       <c r="G27" s="3">
-        <v>-134200</v>
+        <v>-145400</v>
       </c>
       <c r="H27" s="3">
-        <v>-208200</v>
+        <v>-127900</v>
       </c>
       <c r="I27" s="3">
-        <v>-91600</v>
+        <v>-198500</v>
       </c>
       <c r="J27" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-136200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6900</v>
+        <v>-1400</v>
       </c>
       <c r="E32" s="3">
-        <v>-4000</v>
+        <v>-6600</v>
       </c>
       <c r="F32" s="3">
-        <v>-5300</v>
+        <v>-3800</v>
       </c>
       <c r="G32" s="3">
-        <v>1900</v>
+        <v>-5000</v>
       </c>
       <c r="H32" s="3">
-        <v>-9900</v>
+        <v>1800</v>
       </c>
       <c r="I32" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7800</v>
+        <v>-6900</v>
       </c>
       <c r="E33" s="3">
-        <v>41700</v>
+        <v>7500</v>
       </c>
       <c r="F33" s="3">
-        <v>-152500</v>
+        <v>39800</v>
       </c>
       <c r="G33" s="3">
-        <v>-134200</v>
+        <v>-145400</v>
       </c>
       <c r="H33" s="3">
-        <v>-208200</v>
+        <v>-127900</v>
       </c>
       <c r="I33" s="3">
-        <v>-91600</v>
+        <v>-198500</v>
       </c>
       <c r="J33" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-136200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7800</v>
+        <v>-6900</v>
       </c>
       <c r="E35" s="3">
-        <v>41700</v>
+        <v>7500</v>
       </c>
       <c r="F35" s="3">
-        <v>-152500</v>
+        <v>39800</v>
       </c>
       <c r="G35" s="3">
-        <v>-134200</v>
+        <v>-145400</v>
       </c>
       <c r="H35" s="3">
-        <v>-208200</v>
+        <v>-127900</v>
       </c>
       <c r="I35" s="3">
-        <v>-91600</v>
+        <v>-198500</v>
       </c>
       <c r="J35" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-136200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,90 +1966,97 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>141400</v>
+        <v>82200</v>
       </c>
       <c r="E41" s="3">
-        <v>106400</v>
+        <v>134800</v>
       </c>
       <c r="F41" s="3">
-        <v>112500</v>
+        <v>101500</v>
       </c>
       <c r="G41" s="3">
-        <v>146800</v>
+        <v>107300</v>
       </c>
       <c r="H41" s="3">
-        <v>425000</v>
+        <v>139900</v>
       </c>
       <c r="I41" s="3">
-        <v>51900</v>
+        <v>405200</v>
       </c>
       <c r="J41" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K41" s="3">
         <v>27400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>88500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>325200</v>
+        <v>384400</v>
       </c>
       <c r="E42" s="3">
-        <v>405100</v>
+        <v>310000</v>
       </c>
       <c r="F42" s="3">
-        <v>289700</v>
+        <v>386100</v>
       </c>
       <c r="G42" s="3">
-        <v>576800</v>
+        <v>276200</v>
       </c>
       <c r="H42" s="3">
-        <v>357600</v>
+        <v>549800</v>
       </c>
       <c r="I42" s="3">
-        <v>1070600</v>
+        <v>340800</v>
       </c>
       <c r="J42" s="3">
+        <v>1020500</v>
+      </c>
+      <c r="K42" s="3">
         <v>202600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>316000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>157100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>230700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>156200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>263100</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,37 +2096,40 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="E44" s="3">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="F44" s="3">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="G44" s="3">
-        <v>9200</v>
+        <v>3400</v>
       </c>
       <c r="H44" s="3">
-        <v>7500</v>
+        <v>8700</v>
       </c>
       <c r="I44" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="J44" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K44" s="3">
         <v>7300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10200</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>10</v>
@@ -2044,90 +2140,99 @@
       <c r="O44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>46900</v>
+        <v>43700</v>
       </c>
       <c r="E45" s="3">
-        <v>61100</v>
+        <v>44700</v>
       </c>
       <c r="F45" s="3">
-        <v>178500</v>
+        <v>58200</v>
       </c>
       <c r="G45" s="3">
-        <v>102800</v>
+        <v>170200</v>
       </c>
       <c r="H45" s="3">
-        <v>124800</v>
+        <v>98000</v>
       </c>
       <c r="I45" s="3">
-        <v>105500</v>
+        <v>119000</v>
       </c>
       <c r="J45" s="3">
+        <v>100600</v>
+      </c>
+      <c r="K45" s="3">
         <v>65500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>79500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>61400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>40900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>29000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>516200</v>
+        <v>513800</v>
       </c>
       <c r="E46" s="3">
-        <v>574900</v>
+        <v>492000</v>
       </c>
       <c r="F46" s="3">
-        <v>584300</v>
+        <v>548000</v>
       </c>
       <c r="G46" s="3">
-        <v>835600</v>
+        <v>557000</v>
       </c>
       <c r="H46" s="3">
-        <v>914900</v>
+        <v>796500</v>
       </c>
       <c r="I46" s="3">
-        <v>1235000</v>
+        <v>872100</v>
       </c>
       <c r="J46" s="3">
+        <v>1177200</v>
+      </c>
+      <c r="K46" s="3">
         <v>302800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>438900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>306900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>283200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>190200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>295600</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2140,99 +2245,105 @@
       <c r="F47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="3">
-        <v>75700</v>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H47" s="3">
-        <v>76900</v>
+        <v>72200</v>
       </c>
       <c r="I47" s="3">
-        <v>77500</v>
+        <v>73300</v>
       </c>
       <c r="J47" s="3">
+        <v>73900</v>
+      </c>
+      <c r="K47" s="3">
         <v>81100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>84300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>183000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>186000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>163700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>123400</v>
+        <v>101900</v>
       </c>
       <c r="E48" s="3">
-        <v>151000</v>
+        <v>117700</v>
       </c>
       <c r="F48" s="3">
-        <v>168200</v>
+        <v>143900</v>
       </c>
       <c r="G48" s="3">
-        <v>250400</v>
+        <v>160300</v>
       </c>
       <c r="H48" s="3">
-        <v>240200</v>
+        <v>238600</v>
       </c>
       <c r="I48" s="3">
-        <v>220600</v>
+        <v>228900</v>
       </c>
       <c r="J48" s="3">
+        <v>210300</v>
+      </c>
+      <c r="K48" s="3">
         <v>199300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>164200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>141300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>54300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>41500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="3">
-        <v>4200</v>
-      </c>
       <c r="H49" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="I49" s="3">
-        <v>12500</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>10</v>
+        <v>4000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>11900</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>10</v>
@@ -2240,8 +2351,8 @@
       <c r="L49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M49" s="3">
-        <v>100</v>
+      <c r="M49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N49" s="3">
         <v>100</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G52" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H52" s="3">
         <v>7800</v>
       </c>
-      <c r="E52" s="3">
-        <v>7800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>10900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>24100</v>
-      </c>
       <c r="I52" s="3">
-        <v>14800</v>
+        <v>23000</v>
       </c>
       <c r="J52" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K52" s="3">
         <v>30200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>24400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>647400</v>
+        <v>621500</v>
       </c>
       <c r="E54" s="3">
-        <v>733800</v>
+        <v>617100</v>
       </c>
       <c r="F54" s="3">
-        <v>763400</v>
+        <v>699400</v>
       </c>
       <c r="G54" s="3">
-        <v>1174000</v>
+        <v>727700</v>
       </c>
       <c r="H54" s="3">
-        <v>1260300</v>
+        <v>1119100</v>
       </c>
       <c r="I54" s="3">
-        <v>1560400</v>
+        <v>1201400</v>
       </c>
       <c r="J54" s="3">
+        <v>1487500</v>
+      </c>
+      <c r="K54" s="3">
         <v>613400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>720500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>655600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>531400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>404100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>340200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,90 +2704,99 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>171700</v>
+        <v>168000</v>
       </c>
       <c r="E59" s="3">
-        <v>257100</v>
+        <v>163700</v>
       </c>
       <c r="F59" s="3">
-        <v>321800</v>
+        <v>245000</v>
       </c>
       <c r="G59" s="3">
-        <v>543800</v>
+        <v>306800</v>
       </c>
       <c r="H59" s="3">
-        <v>507500</v>
+        <v>518400</v>
       </c>
       <c r="I59" s="3">
-        <v>612900</v>
+        <v>483700</v>
       </c>
       <c r="J59" s="3">
+        <v>584300</v>
+      </c>
+      <c r="K59" s="3">
         <v>413400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>406400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>287400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>256300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>155200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>171700</v>
+        <v>168000</v>
       </c>
       <c r="E60" s="3">
-        <v>257100</v>
+        <v>163700</v>
       </c>
       <c r="F60" s="3">
-        <v>321800</v>
+        <v>245000</v>
       </c>
       <c r="G60" s="3">
-        <v>543800</v>
+        <v>306800</v>
       </c>
       <c r="H60" s="3">
-        <v>507500</v>
+        <v>518400</v>
       </c>
       <c r="I60" s="3">
-        <v>612900</v>
+        <v>483700</v>
       </c>
       <c r="J60" s="3">
+        <v>584300</v>
+      </c>
+      <c r="K60" s="3">
         <v>413400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>406400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>287400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>256300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>155200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,49 +2836,55 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>42500</v>
+        <v>33000</v>
       </c>
       <c r="E62" s="3">
-        <v>56000</v>
+        <v>40500</v>
       </c>
       <c r="F62" s="3">
-        <v>66600</v>
+        <v>53400</v>
       </c>
       <c r="G62" s="3">
-        <v>105500</v>
+        <v>63500</v>
       </c>
       <c r="H62" s="3">
-        <v>114300</v>
+        <v>100600</v>
       </c>
       <c r="I62" s="3">
-        <v>110800</v>
+        <v>108900</v>
       </c>
       <c r="J62" s="3">
+        <v>105600</v>
+      </c>
+      <c r="K62" s="3">
         <v>105400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>85500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>97900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>31300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>214200</v>
+        <v>201000</v>
       </c>
       <c r="E66" s="3">
-        <v>313000</v>
+        <v>204200</v>
       </c>
       <c r="F66" s="3">
-        <v>388400</v>
+        <v>298400</v>
       </c>
       <c r="G66" s="3">
-        <v>649300</v>
+        <v>370200</v>
       </c>
       <c r="H66" s="3">
-        <v>621800</v>
+        <v>618900</v>
       </c>
       <c r="I66" s="3">
-        <v>723700</v>
+        <v>592700</v>
       </c>
       <c r="J66" s="3">
+        <v>689900</v>
+      </c>
+      <c r="K66" s="3">
         <v>518700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>491900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>385300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>287600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>178700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-688600</v>
+        <v>-663300</v>
       </c>
       <c r="E72" s="3">
-        <v>-696500</v>
+        <v>-656400</v>
       </c>
       <c r="F72" s="3">
-        <v>-738200</v>
+        <v>-663900</v>
       </c>
       <c r="G72" s="3">
-        <v>-585700</v>
+        <v>-703700</v>
       </c>
       <c r="H72" s="3">
-        <v>-451500</v>
+        <v>-558300</v>
       </c>
       <c r="I72" s="3">
-        <v>-243300</v>
+        <v>-430400</v>
       </c>
       <c r="J72" s="3">
+        <v>-231900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-151700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-42700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-68900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>433200</v>
+        <v>420400</v>
       </c>
       <c r="E76" s="3">
-        <v>420700</v>
+        <v>413000</v>
       </c>
       <c r="F76" s="3">
-        <v>375000</v>
+        <v>401000</v>
       </c>
       <c r="G76" s="3">
-        <v>524700</v>
+        <v>357400</v>
       </c>
       <c r="H76" s="3">
-        <v>638600</v>
+        <v>500200</v>
       </c>
       <c r="I76" s="3">
-        <v>836700</v>
+        <v>608700</v>
       </c>
       <c r="J76" s="3">
+        <v>797600</v>
+      </c>
+      <c r="K76" s="3">
         <v>94600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>228700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>270300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>243800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>225400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>210700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7800</v>
+        <v>-6900</v>
       </c>
       <c r="E81" s="3">
-        <v>41700</v>
+        <v>7500</v>
       </c>
       <c r="F81" s="3">
-        <v>-152500</v>
+        <v>39800</v>
       </c>
       <c r="G81" s="3">
-        <v>-134200</v>
+        <v>-145400</v>
       </c>
       <c r="H81" s="3">
-        <v>-208200</v>
+        <v>-127900</v>
       </c>
       <c r="I81" s="3">
-        <v>-91600</v>
+        <v>-198500</v>
       </c>
       <c r="J81" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-136200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>GOTU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>74900</v>
+        <v>90400</v>
       </c>
       <c r="E8" s="3">
-        <v>100900</v>
+        <v>87100</v>
       </c>
       <c r="F8" s="3">
-        <v>177400</v>
+        <v>77200</v>
       </c>
       <c r="G8" s="3">
-        <v>155200</v>
+        <v>104100</v>
       </c>
       <c r="H8" s="3">
-        <v>310700</v>
+        <v>183000</v>
       </c>
       <c r="I8" s="3">
+        <v>160100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>320600</v>
+      </c>
+      <c r="K8" s="3">
         <v>270100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>307800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>287100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>243200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>203200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>146400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>85800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>97200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22300</v>
+        <v>22900</v>
       </c>
       <c r="E9" s="3">
-        <v>29600</v>
+        <v>24200</v>
       </c>
       <c r="F9" s="3">
-        <v>53800</v>
+        <v>23000</v>
       </c>
       <c r="G9" s="3">
-        <v>99600</v>
+        <v>30600</v>
       </c>
       <c r="H9" s="3">
-        <v>100800</v>
+        <v>55500</v>
       </c>
       <c r="I9" s="3">
+        <v>102700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>104000</v>
+      </c>
+      <c r="K9" s="3">
         <v>79600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>85800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>73300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>53100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>44300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>30700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>24100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>52600</v>
+        <v>67500</v>
       </c>
       <c r="E10" s="3">
-        <v>71200</v>
+        <v>62800</v>
       </c>
       <c r="F10" s="3">
-        <v>123600</v>
+        <v>54300</v>
       </c>
       <c r="G10" s="3">
-        <v>55600</v>
+        <v>73500</v>
       </c>
       <c r="H10" s="3">
-        <v>209900</v>
+        <v>127500</v>
       </c>
       <c r="I10" s="3">
+        <v>57400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>216600</v>
+      </c>
+      <c r="K10" s="3">
         <v>190500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>222000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>213700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>190000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>158800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>115700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>61600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>68600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="E12" s="3">
-        <v>17200</v>
+        <v>15300</v>
       </c>
       <c r="F12" s="3">
-        <v>17400</v>
+        <v>14900</v>
       </c>
       <c r="G12" s="3">
-        <v>46800</v>
+        <v>17700</v>
       </c>
       <c r="H12" s="3">
-        <v>59400</v>
+        <v>17900</v>
       </c>
       <c r="I12" s="3">
+        <v>48300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K12" s="3">
         <v>50800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>38200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>32200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>20600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>15600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>13100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>8800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>7400</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-8800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-7500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-13100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-9600</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>83300</v>
+        <v>92300</v>
       </c>
       <c r="E17" s="3">
-        <v>97400</v>
+        <v>97000</v>
       </c>
       <c r="F17" s="3">
-        <v>141400</v>
+        <v>85900</v>
       </c>
       <c r="G17" s="3">
-        <v>305700</v>
+        <v>100400</v>
       </c>
       <c r="H17" s="3">
-        <v>429700</v>
+        <v>145900</v>
       </c>
       <c r="I17" s="3">
+        <v>315400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>443400</v>
+      </c>
+      <c r="K17" s="3">
         <v>479300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>395900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>424100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>253800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>179100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>120100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>87400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8400</v>
+        <v>-1900</v>
       </c>
       <c r="E18" s="3">
-        <v>3500</v>
+        <v>-10000</v>
       </c>
       <c r="F18" s="3">
-        <v>36000</v>
+        <v>-8700</v>
       </c>
       <c r="G18" s="3">
-        <v>-150500</v>
+        <v>3600</v>
       </c>
       <c r="H18" s="3">
-        <v>-119000</v>
+        <v>37100</v>
       </c>
       <c r="I18" s="3">
+        <v>-155300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-122700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-209200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-88100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-137100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-10600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>24000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>26200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1243,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K20" s="3">
+        <v>9400</v>
+      </c>
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
-        <v>6600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1257,17 +1330,23 @@
       <c r="M21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="3">
-        <v>30300</v>
+      <c r="N21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="3">
+        <v>30300</v>
+      </c>
+      <c r="Q21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7000</v>
+        <v>5200</v>
       </c>
       <c r="E23" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>41000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-150100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-124600</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-199700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-86800</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-134600</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>26100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>28500</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R23" s="3">
         <v>10100</v>
       </c>
-      <c r="F23" s="3">
-        <v>39700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-145500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-120800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-199700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-86800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-134600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>26100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>28500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P23" s="3">
-        <v>10100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>-5000</v>
       </c>
       <c r="E24" s="3">
-        <v>2600</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
       </c>
       <c r="G24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>7200</v>
-      </c>
       <c r="I24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-10100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6900</v>
+        <v>10100</v>
       </c>
       <c r="E26" s="3">
-        <v>7500</v>
+        <v>-8800</v>
       </c>
       <c r="F26" s="3">
-        <v>39800</v>
+        <v>-7200</v>
       </c>
       <c r="G26" s="3">
-        <v>-145400</v>
+        <v>7700</v>
       </c>
       <c r="H26" s="3">
-        <v>-128000</v>
+        <v>41100</v>
       </c>
       <c r="I26" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-198400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-87500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-136100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>23200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>27200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6900</v>
+        <v>10100</v>
       </c>
       <c r="E27" s="3">
-        <v>7500</v>
+        <v>-8800</v>
       </c>
       <c r="F27" s="3">
-        <v>39800</v>
+        <v>-7200</v>
       </c>
       <c r="G27" s="3">
-        <v>-145400</v>
+        <v>7700</v>
       </c>
       <c r="H27" s="3">
-        <v>-127900</v>
+        <v>41100</v>
       </c>
       <c r="I27" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-198500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-87300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-136200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>23200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>24500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6900</v>
+        <v>10100</v>
       </c>
       <c r="E33" s="3">
-        <v>7500</v>
+        <v>-8800</v>
       </c>
       <c r="F33" s="3">
-        <v>39800</v>
+        <v>-7200</v>
       </c>
       <c r="G33" s="3">
-        <v>-145400</v>
+        <v>7700</v>
       </c>
       <c r="H33" s="3">
-        <v>-127900</v>
+        <v>41100</v>
       </c>
       <c r="I33" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-198500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-87300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-136200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>23200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>24500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6900</v>
+        <v>10100</v>
       </c>
       <c r="E35" s="3">
-        <v>7500</v>
+        <v>-8800</v>
       </c>
       <c r="F35" s="3">
-        <v>39800</v>
+        <v>-7200</v>
       </c>
       <c r="G35" s="3">
-        <v>-145400</v>
+        <v>7700</v>
       </c>
       <c r="H35" s="3">
-        <v>-127900</v>
+        <v>41100</v>
       </c>
       <c r="I35" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-198500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-87300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-136200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>23200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>24500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2138,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>82200</v>
+        <v>117800</v>
       </c>
       <c r="E41" s="3">
-        <v>134800</v>
+        <v>130500</v>
       </c>
       <c r="F41" s="3">
-        <v>101500</v>
+        <v>84800</v>
       </c>
       <c r="G41" s="3">
-        <v>107300</v>
+        <v>139000</v>
       </c>
       <c r="H41" s="3">
-        <v>139900</v>
+        <v>104700</v>
       </c>
       <c r="I41" s="3">
+        <v>110700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>144400</v>
+      </c>
+      <c r="K41" s="3">
         <v>405200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>49400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>27400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>33200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>88500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>11600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>384400</v>
+        <v>419900</v>
       </c>
       <c r="E42" s="3">
-        <v>310000</v>
+        <v>349500</v>
       </c>
       <c r="F42" s="3">
-        <v>386100</v>
+        <v>396600</v>
       </c>
       <c r="G42" s="3">
-        <v>276200</v>
+        <v>319800</v>
       </c>
       <c r="H42" s="3">
-        <v>549800</v>
+        <v>398400</v>
       </c>
       <c r="I42" s="3">
+        <v>284900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>567200</v>
+      </c>
+      <c r="K42" s="3">
         <v>340800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1020500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>202600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>316000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>157100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>230700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>156200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>263100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,43 +2284,49 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E44" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H44" s="3">
         <v>2200</v>
       </c>
-      <c r="G44" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>8700</v>
-      </c>
       <c r="I44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K44" s="3">
         <v>7100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>6700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>7300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>10200</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>10</v>
@@ -2143,96 +2334,114 @@
       <c r="P44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>43700</v>
+        <v>57400</v>
       </c>
       <c r="E45" s="3">
-        <v>44700</v>
+        <v>48900</v>
       </c>
       <c r="F45" s="3">
-        <v>58200</v>
+        <v>45000</v>
       </c>
       <c r="G45" s="3">
-        <v>170200</v>
+        <v>46100</v>
       </c>
       <c r="H45" s="3">
-        <v>98000</v>
+        <v>60100</v>
       </c>
       <c r="I45" s="3">
+        <v>175600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>101100</v>
+      </c>
+      <c r="K45" s="3">
         <v>119000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>100600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>65500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>79500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>61400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>40900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>29000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>513800</v>
+        <v>598400</v>
       </c>
       <c r="E46" s="3">
-        <v>492000</v>
+        <v>531700</v>
       </c>
       <c r="F46" s="3">
-        <v>548000</v>
+        <v>530100</v>
       </c>
       <c r="G46" s="3">
-        <v>557000</v>
+        <v>507700</v>
       </c>
       <c r="H46" s="3">
-        <v>796500</v>
+        <v>565400</v>
       </c>
       <c r="I46" s="3">
+        <v>574700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>821800</v>
+      </c>
+      <c r="K46" s="3">
         <v>872100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1177200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>302800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>438900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>306900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>283200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>190200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>295600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2248,79 +2457,91 @@
       <c r="G47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="3">
-        <v>72200</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3">
+        <v>74500</v>
+      </c>
+      <c r="K47" s="3">
         <v>73300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>73900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>81100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>84300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>183000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>186000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>163700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>101900</v>
+        <v>91300</v>
       </c>
       <c r="E48" s="3">
-        <v>117700</v>
+        <v>96600</v>
       </c>
       <c r="F48" s="3">
-        <v>143900</v>
+        <v>105100</v>
       </c>
       <c r="G48" s="3">
-        <v>160300</v>
+        <v>121400</v>
       </c>
       <c r="H48" s="3">
-        <v>238600</v>
+        <v>148500</v>
       </c>
       <c r="I48" s="3">
+        <v>165400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>246200</v>
+      </c>
+      <c r="K48" s="3">
         <v>228900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>210300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>199300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>164200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>141300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>54300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>41500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2330,41 +2551,47 @@
       <c r="E49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="3">
-        <v>100</v>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H49" s="3">
+        <v>100</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K49" s="3">
         <v>4000</v>
       </c>
-      <c r="I49" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>11900</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N49" s="3">
-        <v>100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>100</v>
+      <c r="N49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+      <c r="R49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5800</v>
+        <v>10600</v>
       </c>
       <c r="E52" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="F52" s="3">
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="G52" s="3">
-        <v>10400</v>
+        <v>7700</v>
       </c>
       <c r="H52" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="I52" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K52" s="3">
         <v>23000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>14100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>30200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>33200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>24400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>7900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>8600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>621500</v>
+        <v>700300</v>
       </c>
       <c r="E54" s="3">
-        <v>617100</v>
+        <v>636000</v>
       </c>
       <c r="F54" s="3">
-        <v>699400</v>
+        <v>641200</v>
       </c>
       <c r="G54" s="3">
-        <v>727700</v>
+        <v>636700</v>
       </c>
       <c r="H54" s="3">
-        <v>1119100</v>
+        <v>721600</v>
       </c>
       <c r="I54" s="3">
+        <v>750800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1154600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1201400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1487500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>613400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>720500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>655600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>531400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>404100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>340200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,96 +2974,114 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>168000</v>
+        <v>231100</v>
       </c>
       <c r="E59" s="3">
-        <v>163700</v>
+        <v>169700</v>
       </c>
       <c r="F59" s="3">
-        <v>245000</v>
+        <v>173300</v>
       </c>
       <c r="G59" s="3">
-        <v>306800</v>
+        <v>168900</v>
       </c>
       <c r="H59" s="3">
-        <v>518400</v>
+        <v>252800</v>
       </c>
       <c r="I59" s="3">
+        <v>316500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>534800</v>
+      </c>
+      <c r="K59" s="3">
         <v>483700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>584300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>413400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>406400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>287400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>256300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>155200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>168000</v>
+        <v>231100</v>
       </c>
       <c r="E60" s="3">
-        <v>163700</v>
+        <v>169700</v>
       </c>
       <c r="F60" s="3">
-        <v>245000</v>
+        <v>173300</v>
       </c>
       <c r="G60" s="3">
-        <v>306800</v>
+        <v>168900</v>
       </c>
       <c r="H60" s="3">
-        <v>518400</v>
+        <v>252800</v>
       </c>
       <c r="I60" s="3">
+        <v>316500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>534800</v>
+      </c>
+      <c r="K60" s="3">
         <v>483700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>584300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>413400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>406400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>287400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>256300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>155200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,52 +3124,64 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33000</v>
+        <v>24600</v>
       </c>
       <c r="E62" s="3">
-        <v>40500</v>
+        <v>29700</v>
       </c>
       <c r="F62" s="3">
-        <v>53400</v>
+        <v>34100</v>
       </c>
       <c r="G62" s="3">
-        <v>63500</v>
+        <v>41800</v>
       </c>
       <c r="H62" s="3">
-        <v>100600</v>
+        <v>55100</v>
       </c>
       <c r="I62" s="3">
+        <v>65500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>103800</v>
+      </c>
+      <c r="K62" s="3">
         <v>108900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>105600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>105400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>85500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>97900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>31300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>23400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>201000</v>
+        <v>255700</v>
       </c>
       <c r="E66" s="3">
-        <v>204200</v>
+        <v>199500</v>
       </c>
       <c r="F66" s="3">
-        <v>298400</v>
+        <v>207400</v>
       </c>
       <c r="G66" s="3">
-        <v>370200</v>
+        <v>210700</v>
       </c>
       <c r="H66" s="3">
-        <v>618900</v>
+        <v>307900</v>
       </c>
       <c r="I66" s="3">
+        <v>382000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>638600</v>
+      </c>
+      <c r="K66" s="3">
         <v>592700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>689900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>518700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>491900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>385300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>287600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>178700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-663300</v>
+        <v>-683100</v>
       </c>
       <c r="E72" s="3">
-        <v>-656400</v>
+        <v>-693200</v>
       </c>
       <c r="F72" s="3">
-        <v>-663900</v>
+        <v>-684400</v>
       </c>
       <c r="G72" s="3">
-        <v>-703700</v>
+        <v>-677300</v>
       </c>
       <c r="H72" s="3">
-        <v>-558300</v>
+        <v>-685000</v>
       </c>
       <c r="I72" s="3">
+        <v>-726000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-576000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-430400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-231900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-151700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-15700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-19600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-42700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-68900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>420400</v>
+        <v>444600</v>
       </c>
       <c r="E76" s="3">
-        <v>413000</v>
+        <v>436600</v>
       </c>
       <c r="F76" s="3">
-        <v>401000</v>
+        <v>433800</v>
       </c>
       <c r="G76" s="3">
-        <v>357400</v>
+        <v>426100</v>
       </c>
       <c r="H76" s="3">
-        <v>500200</v>
+        <v>413800</v>
       </c>
       <c r="I76" s="3">
+        <v>368800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>516000</v>
+      </c>
+      <c r="K76" s="3">
         <v>608700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>797600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>94600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>228700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>270300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>243800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>225400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>210700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6900</v>
+        <v>10100</v>
       </c>
       <c r="E81" s="3">
-        <v>7500</v>
+        <v>-8800</v>
       </c>
       <c r="F81" s="3">
-        <v>39800</v>
+        <v>-7200</v>
       </c>
       <c r="G81" s="3">
-        <v>-145400</v>
+        <v>7700</v>
       </c>
       <c r="H81" s="3">
-        <v>-127900</v>
+        <v>41100</v>
       </c>
       <c r="I81" s="3">
+        <v>-150000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-198500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-87300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-136200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>23200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>24500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,31 +4319,37 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>82600</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>69100</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>GOTU</t>
   </si>
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>90400</v>
+        <v>89500</v>
       </c>
       <c r="E8" s="3">
-        <v>87100</v>
+        <v>86200</v>
       </c>
       <c r="F8" s="3">
-        <v>77200</v>
+        <v>76400</v>
       </c>
       <c r="G8" s="3">
-        <v>104100</v>
+        <v>103000</v>
       </c>
       <c r="H8" s="3">
-        <v>183000</v>
+        <v>181100</v>
       </c>
       <c r="I8" s="3">
-        <v>160100</v>
+        <v>158500</v>
       </c>
       <c r="J8" s="3">
-        <v>320600</v>
+        <v>317300</v>
       </c>
       <c r="K8" s="3">
         <v>270100</v>
@@ -794,25 +794,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22900</v>
+        <v>22600</v>
       </c>
       <c r="E9" s="3">
-        <v>24200</v>
+        <v>24000</v>
       </c>
       <c r="F9" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="G9" s="3">
-        <v>30600</v>
+        <v>30300</v>
       </c>
       <c r="H9" s="3">
-        <v>55500</v>
+        <v>55000</v>
       </c>
       <c r="I9" s="3">
-        <v>102700</v>
+        <v>101700</v>
       </c>
       <c r="J9" s="3">
-        <v>104000</v>
+        <v>103000</v>
       </c>
       <c r="K9" s="3">
         <v>79600</v>
@@ -844,25 +844,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>67500</v>
+        <v>66900</v>
       </c>
       <c r="E10" s="3">
-        <v>62800</v>
+        <v>62200</v>
       </c>
       <c r="F10" s="3">
-        <v>54300</v>
+        <v>53700</v>
       </c>
       <c r="G10" s="3">
-        <v>73500</v>
+        <v>72700</v>
       </c>
       <c r="H10" s="3">
-        <v>127500</v>
+        <v>126200</v>
       </c>
       <c r="I10" s="3">
-        <v>57400</v>
+        <v>56800</v>
       </c>
       <c r="J10" s="3">
-        <v>216600</v>
+        <v>214400</v>
       </c>
       <c r="K10" s="3">
         <v>190500</v>
@@ -914,25 +914,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="E12" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="F12" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="G12" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="H12" s="3">
-        <v>17900</v>
+        <v>17800</v>
       </c>
       <c r="I12" s="3">
-        <v>48300</v>
+        <v>47800</v>
       </c>
       <c r="J12" s="3">
-        <v>61300</v>
+        <v>60600</v>
       </c>
       <c r="K12" s="3">
         <v>50800</v>
@@ -1131,25 +1131,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>92300</v>
+        <v>91400</v>
       </c>
       <c r="E17" s="3">
-        <v>97000</v>
+        <v>96100</v>
       </c>
       <c r="F17" s="3">
-        <v>85900</v>
+        <v>85000</v>
       </c>
       <c r="G17" s="3">
-        <v>100400</v>
+        <v>99400</v>
       </c>
       <c r="H17" s="3">
-        <v>145900</v>
+        <v>144400</v>
       </c>
       <c r="I17" s="3">
-        <v>315400</v>
+        <v>312200</v>
       </c>
       <c r="J17" s="3">
-        <v>443400</v>
+        <v>438800</v>
       </c>
       <c r="K17" s="3">
         <v>479300</v>
@@ -1184,22 +1184,22 @@
         <v>-1900</v>
       </c>
       <c r="E18" s="3">
-        <v>-10000</v>
+        <v>-9900</v>
       </c>
       <c r="F18" s="3">
-        <v>-8700</v>
+        <v>-8600</v>
       </c>
       <c r="G18" s="3">
         <v>3600</v>
       </c>
       <c r="H18" s="3">
-        <v>37100</v>
+        <v>36700</v>
       </c>
       <c r="I18" s="3">
-        <v>-155300</v>
+        <v>-153700</v>
       </c>
       <c r="J18" s="3">
-        <v>-122700</v>
+        <v>-121500</v>
       </c>
       <c r="K18" s="3">
         <v>-209200</v>
@@ -1251,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E20" s="3">
         <v>1200</v>
@@ -1260,10 +1260,10 @@
         <v>1500</v>
       </c>
       <c r="G20" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="H20" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I20" s="3">
         <v>5200</v>
@@ -1401,25 +1401,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="E23" s="3">
         <v>-8700</v>
       </c>
       <c r="F23" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="G23" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="H23" s="3">
-        <v>41000</v>
+        <v>40600</v>
       </c>
       <c r="I23" s="3">
-        <v>-150100</v>
+        <v>-148600</v>
       </c>
       <c r="J23" s="3">
-        <v>-124600</v>
+        <v>-123400</v>
       </c>
       <c r="K23" s="3">
         <v>-199700</v>
@@ -1451,7 +1451,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1469,7 +1469,7 @@
         <v>-100</v>
       </c>
       <c r="J24" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="K24" s="3">
         <v>-1400</v>
@@ -1551,25 +1551,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="E26" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="F26" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="G26" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="H26" s="3">
-        <v>41100</v>
+        <v>40600</v>
       </c>
       <c r="I26" s="3">
-        <v>-150000</v>
+        <v>-148500</v>
       </c>
       <c r="J26" s="3">
-        <v>-132000</v>
+        <v>-130700</v>
       </c>
       <c r="K26" s="3">
         <v>-198400</v>
@@ -1601,25 +1601,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="E27" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="F27" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="G27" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="H27" s="3">
-        <v>41100</v>
+        <v>40600</v>
       </c>
       <c r="I27" s="3">
-        <v>-150000</v>
+        <v>-148500</v>
       </c>
       <c r="J27" s="3">
-        <v>-132000</v>
+        <v>-130600</v>
       </c>
       <c r="K27" s="3">
         <v>-198500</v>
@@ -1851,7 +1851,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="E32" s="3">
         <v>-1200</v>
@@ -1860,10 +1860,10 @@
         <v>-1500</v>
       </c>
       <c r="G32" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="H32" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="I32" s="3">
         <v>-5200</v>
@@ -1901,25 +1901,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="E33" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="F33" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="G33" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="H33" s="3">
-        <v>41100</v>
+        <v>40600</v>
       </c>
       <c r="I33" s="3">
-        <v>-150000</v>
+        <v>-148500</v>
       </c>
       <c r="J33" s="3">
-        <v>-132000</v>
+        <v>-130600</v>
       </c>
       <c r="K33" s="3">
         <v>-198500</v>
@@ -2001,25 +2001,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="E35" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="F35" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="G35" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="H35" s="3">
-        <v>41100</v>
+        <v>40600</v>
       </c>
       <c r="I35" s="3">
-        <v>-150000</v>
+        <v>-148500</v>
       </c>
       <c r="J35" s="3">
-        <v>-132000</v>
+        <v>-130600</v>
       </c>
       <c r="K35" s="3">
         <v>-198500</v>
@@ -2146,25 +2146,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>117800</v>
+        <v>116600</v>
       </c>
       <c r="E41" s="3">
-        <v>130500</v>
+        <v>129200</v>
       </c>
       <c r="F41" s="3">
-        <v>84800</v>
+        <v>84000</v>
       </c>
       <c r="G41" s="3">
-        <v>139000</v>
+        <v>137600</v>
       </c>
       <c r="H41" s="3">
-        <v>104700</v>
+        <v>103600</v>
       </c>
       <c r="I41" s="3">
-        <v>110700</v>
+        <v>109500</v>
       </c>
       <c r="J41" s="3">
-        <v>144400</v>
+        <v>142900</v>
       </c>
       <c r="K41" s="3">
         <v>405200</v>
@@ -2196,25 +2196,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>419900</v>
+        <v>415600</v>
       </c>
       <c r="E42" s="3">
-        <v>349500</v>
+        <v>345900</v>
       </c>
       <c r="F42" s="3">
-        <v>396600</v>
+        <v>392600</v>
       </c>
       <c r="G42" s="3">
-        <v>319800</v>
+        <v>316500</v>
       </c>
       <c r="H42" s="3">
-        <v>398400</v>
+        <v>394300</v>
       </c>
       <c r="I42" s="3">
-        <v>284900</v>
+        <v>282000</v>
       </c>
       <c r="J42" s="3">
-        <v>567200</v>
+        <v>561400</v>
       </c>
       <c r="K42" s="3">
         <v>340800</v>
@@ -2296,13 +2296,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E44" s="3">
         <v>2700</v>
       </c>
       <c r="F44" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G44" s="3">
         <v>2700</v>
@@ -2314,7 +2314,7 @@
         <v>3500</v>
       </c>
       <c r="J44" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="K44" s="3">
         <v>7100</v>
@@ -2346,25 +2346,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>57400</v>
+        <v>56800</v>
       </c>
       <c r="E45" s="3">
-        <v>48900</v>
+        <v>48400</v>
       </c>
       <c r="F45" s="3">
-        <v>45000</v>
+        <v>44600</v>
       </c>
       <c r="G45" s="3">
-        <v>46100</v>
+        <v>45600</v>
       </c>
       <c r="H45" s="3">
-        <v>60100</v>
+        <v>59500</v>
       </c>
       <c r="I45" s="3">
-        <v>175600</v>
+        <v>173800</v>
       </c>
       <c r="J45" s="3">
-        <v>101100</v>
+        <v>100100</v>
       </c>
       <c r="K45" s="3">
         <v>119000</v>
@@ -2396,25 +2396,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>598400</v>
+        <v>592300</v>
       </c>
       <c r="E46" s="3">
-        <v>531700</v>
+        <v>526200</v>
       </c>
       <c r="F46" s="3">
-        <v>530100</v>
+        <v>524700</v>
       </c>
       <c r="G46" s="3">
-        <v>507700</v>
+        <v>502500</v>
       </c>
       <c r="H46" s="3">
-        <v>565400</v>
+        <v>559600</v>
       </c>
       <c r="I46" s="3">
-        <v>574700</v>
+        <v>568800</v>
       </c>
       <c r="J46" s="3">
-        <v>821800</v>
+        <v>813400</v>
       </c>
       <c r="K46" s="3">
         <v>872100</v>
@@ -2464,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="J47" s="3">
-        <v>74500</v>
+        <v>73700</v>
       </c>
       <c r="K47" s="3">
         <v>73300</v>
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>91300</v>
+        <v>90400</v>
       </c>
       <c r="E48" s="3">
-        <v>96600</v>
+        <v>95600</v>
       </c>
       <c r="F48" s="3">
-        <v>105100</v>
+        <v>104100</v>
       </c>
       <c r="G48" s="3">
-        <v>121400</v>
+        <v>120200</v>
       </c>
       <c r="H48" s="3">
-        <v>148500</v>
+        <v>147000</v>
       </c>
       <c r="I48" s="3">
-        <v>165400</v>
+        <v>163700</v>
       </c>
       <c r="J48" s="3">
-        <v>246200</v>
+        <v>243700</v>
       </c>
       <c r="K48" s="3">
         <v>228900</v>
@@ -2545,8 +2545,8 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>10</v>
+      <c r="D49" s="3">
+        <v>2700</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>10</v>
@@ -2696,22 +2696,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>7600</v>
+      </c>
+      <c r="I52" s="3">
         <v>10600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>7800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>7700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>10700</v>
       </c>
       <c r="J52" s="3">
         <v>8000</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>700300</v>
+        <v>693100</v>
       </c>
       <c r="E54" s="3">
-        <v>636000</v>
+        <v>629500</v>
       </c>
       <c r="F54" s="3">
-        <v>641200</v>
+        <v>634600</v>
       </c>
       <c r="G54" s="3">
-        <v>636700</v>
+        <v>630200</v>
       </c>
       <c r="H54" s="3">
-        <v>721600</v>
+        <v>714300</v>
       </c>
       <c r="I54" s="3">
-        <v>750800</v>
+        <v>743100</v>
       </c>
       <c r="J54" s="3">
-        <v>1154600</v>
+        <v>1142800</v>
       </c>
       <c r="K54" s="3">
         <v>1201400</v>
@@ -2986,25 +2986,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>231100</v>
+        <v>228800</v>
       </c>
       <c r="E59" s="3">
-        <v>169700</v>
+        <v>168000</v>
       </c>
       <c r="F59" s="3">
-        <v>173300</v>
+        <v>171500</v>
       </c>
       <c r="G59" s="3">
-        <v>168900</v>
+        <v>167200</v>
       </c>
       <c r="H59" s="3">
-        <v>252800</v>
+        <v>250200</v>
       </c>
       <c r="I59" s="3">
-        <v>316500</v>
+        <v>313300</v>
       </c>
       <c r="J59" s="3">
-        <v>534800</v>
+        <v>529300</v>
       </c>
       <c r="K59" s="3">
         <v>483700</v>
@@ -3036,25 +3036,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>231100</v>
+        <v>228800</v>
       </c>
       <c r="E60" s="3">
-        <v>169700</v>
+        <v>168000</v>
       </c>
       <c r="F60" s="3">
-        <v>173300</v>
+        <v>171500</v>
       </c>
       <c r="G60" s="3">
-        <v>168900</v>
+        <v>167200</v>
       </c>
       <c r="H60" s="3">
-        <v>252800</v>
+        <v>250200</v>
       </c>
       <c r="I60" s="3">
-        <v>316500</v>
+        <v>313300</v>
       </c>
       <c r="J60" s="3">
-        <v>534800</v>
+        <v>529300</v>
       </c>
       <c r="K60" s="3">
         <v>483700</v>
@@ -3136,25 +3136,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24600</v>
+        <v>24300</v>
       </c>
       <c r="E62" s="3">
-        <v>29700</v>
+        <v>29400</v>
       </c>
       <c r="F62" s="3">
-        <v>34100</v>
+        <v>33700</v>
       </c>
       <c r="G62" s="3">
-        <v>41800</v>
+        <v>41300</v>
       </c>
       <c r="H62" s="3">
-        <v>55100</v>
+        <v>54500</v>
       </c>
       <c r="I62" s="3">
-        <v>65500</v>
+        <v>64800</v>
       </c>
       <c r="J62" s="3">
-        <v>103800</v>
+        <v>102700</v>
       </c>
       <c r="K62" s="3">
         <v>108900</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>255700</v>
+        <v>253100</v>
       </c>
       <c r="E66" s="3">
-        <v>199500</v>
+        <v>197400</v>
       </c>
       <c r="F66" s="3">
-        <v>207400</v>
+        <v>205300</v>
       </c>
       <c r="G66" s="3">
-        <v>210700</v>
+        <v>208500</v>
       </c>
       <c r="H66" s="3">
-        <v>307900</v>
+        <v>304700</v>
       </c>
       <c r="I66" s="3">
-        <v>382000</v>
+        <v>378100</v>
       </c>
       <c r="J66" s="3">
-        <v>638600</v>
+        <v>632000</v>
       </c>
       <c r="K66" s="3">
         <v>592700</v>
@@ -3606,25 +3606,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-683100</v>
+        <v>-676100</v>
       </c>
       <c r="E72" s="3">
-        <v>-693200</v>
+        <v>-686100</v>
       </c>
       <c r="F72" s="3">
-        <v>-684400</v>
+        <v>-677400</v>
       </c>
       <c r="G72" s="3">
-        <v>-677300</v>
+        <v>-670300</v>
       </c>
       <c r="H72" s="3">
-        <v>-685000</v>
+        <v>-678000</v>
       </c>
       <c r="I72" s="3">
-        <v>-726000</v>
+        <v>-718600</v>
       </c>
       <c r="J72" s="3">
-        <v>-576000</v>
+        <v>-570100</v>
       </c>
       <c r="K72" s="3">
         <v>-430400</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>444600</v>
+        <v>440100</v>
       </c>
       <c r="E76" s="3">
-        <v>436600</v>
+        <v>432100</v>
       </c>
       <c r="F76" s="3">
-        <v>433800</v>
+        <v>429400</v>
       </c>
       <c r="G76" s="3">
-        <v>426100</v>
+        <v>421700</v>
       </c>
       <c r="H76" s="3">
-        <v>413800</v>
+        <v>409500</v>
       </c>
       <c r="I76" s="3">
-        <v>368800</v>
+        <v>365000</v>
       </c>
       <c r="J76" s="3">
-        <v>516000</v>
+        <v>510800</v>
       </c>
       <c r="K76" s="3">
         <v>608700</v>
@@ -3961,25 +3961,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="E81" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="F81" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="G81" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="H81" s="3">
-        <v>41100</v>
+        <v>40600</v>
       </c>
       <c r="I81" s="3">
-        <v>-150000</v>
+        <v>-148500</v>
       </c>
       <c r="J81" s="3">
-        <v>-132000</v>
+        <v>-130600</v>
       </c>
       <c r="K81" s="3">
         <v>-198500</v>
@@ -4330,17 +4330,17 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>10</v>
+      <c r="D89" s="3">
+        <v>-87300</v>
       </c>
       <c r="E89" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="F89" s="3">
-        <v>82600</v>
+        <v>13300</v>
       </c>
       <c r="G89" s="3">
-        <v>69100</v>
+        <v>68400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>10</v>

--- a/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>GOTU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>89500</v>
+        <v>97500</v>
       </c>
       <c r="E8" s="3">
-        <v>86200</v>
+        <v>86700</v>
       </c>
       <c r="F8" s="3">
-        <v>76400</v>
+        <v>83500</v>
       </c>
       <c r="G8" s="3">
-        <v>103000</v>
+        <v>74100</v>
       </c>
       <c r="H8" s="3">
-        <v>181100</v>
+        <v>99800</v>
       </c>
       <c r="I8" s="3">
-        <v>158500</v>
+        <v>175600</v>
       </c>
       <c r="J8" s="3">
+        <v>153600</v>
+      </c>
+      <c r="K8" s="3">
         <v>317300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>270100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>307800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>287100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>243200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>203200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>146400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>85800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>97200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22600</v>
+        <v>22000</v>
       </c>
       <c r="E9" s="3">
-        <v>24000</v>
+        <v>21900</v>
       </c>
       <c r="F9" s="3">
-        <v>22700</v>
+        <v>23300</v>
       </c>
       <c r="G9" s="3">
-        <v>30300</v>
+        <v>22000</v>
       </c>
       <c r="H9" s="3">
-        <v>55000</v>
+        <v>29300</v>
       </c>
       <c r="I9" s="3">
-        <v>101700</v>
+        <v>53300</v>
       </c>
       <c r="J9" s="3">
+        <v>98500</v>
+      </c>
+      <c r="K9" s="3">
         <v>103000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>79600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>85800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>73300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>53100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>44300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>30700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>24100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>66900</v>
+        <v>75400</v>
       </c>
       <c r="E10" s="3">
-        <v>62200</v>
+        <v>64800</v>
       </c>
       <c r="F10" s="3">
-        <v>53700</v>
+        <v>60300</v>
       </c>
       <c r="G10" s="3">
-        <v>72700</v>
+        <v>52100</v>
       </c>
       <c r="H10" s="3">
-        <v>126200</v>
+        <v>70500</v>
       </c>
       <c r="I10" s="3">
-        <v>56800</v>
+        <v>122300</v>
       </c>
       <c r="J10" s="3">
+        <v>55100</v>
+      </c>
+      <c r="K10" s="3">
         <v>214400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>190500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>222000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>213700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>190000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>158800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>115700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>61600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>68600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>15800</v>
+        <v>13400</v>
       </c>
       <c r="E12" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="F12" s="3">
-        <v>14800</v>
+        <v>14700</v>
       </c>
       <c r="G12" s="3">
-        <v>17500</v>
+        <v>14300</v>
       </c>
       <c r="H12" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="I12" s="3">
-        <v>47800</v>
+        <v>17200</v>
       </c>
       <c r="J12" s="3">
+        <v>46300</v>
+      </c>
+      <c r="K12" s="3">
         <v>60600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>50800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>38200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>32200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>13100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -1025,32 +1045,32 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>2000</v>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>4100</v>
+        <v>1900</v>
       </c>
       <c r="J14" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K14" s="3">
         <v>7600</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-8800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-7500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-13100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-9600</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>91400</v>
+        <v>84300</v>
       </c>
       <c r="E17" s="3">
-        <v>96100</v>
+        <v>88600</v>
       </c>
       <c r="F17" s="3">
-        <v>85000</v>
+        <v>93100</v>
       </c>
       <c r="G17" s="3">
-        <v>99400</v>
+        <v>82400</v>
       </c>
       <c r="H17" s="3">
-        <v>144400</v>
+        <v>96400</v>
       </c>
       <c r="I17" s="3">
-        <v>312200</v>
+        <v>140000</v>
       </c>
       <c r="J17" s="3">
+        <v>302600</v>
+      </c>
+      <c r="K17" s="3">
         <v>438800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>479300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>395900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>424100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>253800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>179100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>120100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>87400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>88000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1900</v>
+        <v>13100</v>
       </c>
       <c r="E18" s="3">
-        <v>-9900</v>
+        <v>-1800</v>
       </c>
       <c r="F18" s="3">
-        <v>-8600</v>
+        <v>-9600</v>
       </c>
       <c r="G18" s="3">
-        <v>3600</v>
+        <v>-8300</v>
       </c>
       <c r="H18" s="3">
-        <v>36700</v>
+        <v>3500</v>
       </c>
       <c r="I18" s="3">
-        <v>-153700</v>
+        <v>35600</v>
       </c>
       <c r="J18" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-121500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-209200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-88100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-137100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>24000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="E20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
-        <v>1500</v>
-      </c>
       <c r="G20" s="3">
-        <v>6700</v>
+        <v>1400</v>
       </c>
       <c r="H20" s="3">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="I20" s="3">
-        <v>5200</v>
+        <v>3700</v>
       </c>
       <c r="J20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1336,17 +1373,20 @@
       <c r="O21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="3">
         <v>30300</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5100</v>
+        <v>18100</v>
       </c>
       <c r="E23" s="3">
-        <v>-8700</v>
+        <v>5000</v>
       </c>
       <c r="F23" s="3">
-        <v>-7100</v>
+        <v>-8400</v>
       </c>
       <c r="G23" s="3">
-        <v>10300</v>
+        <v>-6900</v>
       </c>
       <c r="H23" s="3">
-        <v>40600</v>
+        <v>10000</v>
       </c>
       <c r="I23" s="3">
-        <v>-148600</v>
+        <v>39300</v>
       </c>
       <c r="J23" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-123400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-199700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-86800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-134600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>28500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4900</v>
+        <v>2400</v>
       </c>
       <c r="E24" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>2700</v>
-      </c>
       <c r="H24" s="3">
-        <v>-100</v>
+        <v>2600</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
       </c>
       <c r="J24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K24" s="3">
         <v>7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-10100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10000</v>
+        <v>15700</v>
       </c>
       <c r="E26" s="3">
-        <v>-8700</v>
+        <v>9700</v>
       </c>
       <c r="F26" s="3">
-        <v>-7100</v>
+        <v>-8500</v>
       </c>
       <c r="G26" s="3">
-        <v>7600</v>
+        <v>-6900</v>
       </c>
       <c r="H26" s="3">
-        <v>40600</v>
+        <v>7400</v>
       </c>
       <c r="I26" s="3">
-        <v>-148500</v>
+        <v>39400</v>
       </c>
       <c r="J26" s="3">
+        <v>-143900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-130700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-198400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-87500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-136100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>27200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10000</v>
+        <v>15700</v>
       </c>
       <c r="E27" s="3">
-        <v>-8700</v>
+        <v>9700</v>
       </c>
       <c r="F27" s="3">
-        <v>-7100</v>
+        <v>-8500</v>
       </c>
       <c r="G27" s="3">
-        <v>7600</v>
+        <v>-6900</v>
       </c>
       <c r="H27" s="3">
-        <v>40600</v>
+        <v>7400</v>
       </c>
       <c r="I27" s="3">
-        <v>-148500</v>
+        <v>39400</v>
       </c>
       <c r="J27" s="3">
+        <v>-143900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-130600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-198500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-87300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-136200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7000</v>
+        <v>-5000</v>
       </c>
       <c r="E32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1500</v>
-      </c>
       <c r="G32" s="3">
-        <v>-6700</v>
+        <v>-1400</v>
       </c>
       <c r="H32" s="3">
-        <v>-3800</v>
+        <v>-6500</v>
       </c>
       <c r="I32" s="3">
-        <v>-5200</v>
+        <v>-3700</v>
       </c>
       <c r="J32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10000</v>
+        <v>15700</v>
       </c>
       <c r="E33" s="3">
-        <v>-8700</v>
+        <v>9700</v>
       </c>
       <c r="F33" s="3">
-        <v>-7100</v>
+        <v>-8500</v>
       </c>
       <c r="G33" s="3">
-        <v>7600</v>
+        <v>-6900</v>
       </c>
       <c r="H33" s="3">
-        <v>40600</v>
+        <v>7400</v>
       </c>
       <c r="I33" s="3">
-        <v>-148500</v>
+        <v>39400</v>
       </c>
       <c r="J33" s="3">
+        <v>-143900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-130600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-198500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-87300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-136200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10000</v>
+        <v>15700</v>
       </c>
       <c r="E35" s="3">
-        <v>-8700</v>
+        <v>9700</v>
       </c>
       <c r="F35" s="3">
-        <v>-7100</v>
+        <v>-8500</v>
       </c>
       <c r="G35" s="3">
-        <v>7600</v>
+        <v>-6900</v>
       </c>
       <c r="H35" s="3">
-        <v>40600</v>
+        <v>7400</v>
       </c>
       <c r="I35" s="3">
-        <v>-148500</v>
+        <v>39400</v>
       </c>
       <c r="J35" s="3">
+        <v>-143900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-130600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-198500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-87300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-136200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,108 +2226,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>116600</v>
+        <v>167700</v>
       </c>
       <c r="E41" s="3">
-        <v>129200</v>
+        <v>113000</v>
       </c>
       <c r="F41" s="3">
-        <v>84000</v>
+        <v>125200</v>
       </c>
       <c r="G41" s="3">
-        <v>137600</v>
+        <v>81400</v>
       </c>
       <c r="H41" s="3">
-        <v>103600</v>
+        <v>133400</v>
       </c>
       <c r="I41" s="3">
-        <v>109500</v>
+        <v>100400</v>
       </c>
       <c r="J41" s="3">
+        <v>106200</v>
+      </c>
+      <c r="K41" s="3">
         <v>142900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>405200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>33200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>88500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>415600</v>
+        <v>304000</v>
       </c>
       <c r="E42" s="3">
-        <v>345900</v>
+        <v>402800</v>
       </c>
       <c r="F42" s="3">
-        <v>392600</v>
+        <v>335300</v>
       </c>
       <c r="G42" s="3">
-        <v>316500</v>
+        <v>380500</v>
       </c>
       <c r="H42" s="3">
-        <v>394300</v>
+        <v>306800</v>
       </c>
       <c r="I42" s="3">
-        <v>282000</v>
+        <v>382200</v>
       </c>
       <c r="J42" s="3">
+        <v>273300</v>
+      </c>
+      <c r="K42" s="3">
         <v>561400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>340800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1020500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>202600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>316000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>157100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>230700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>156200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>263100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,46 +2383,49 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="E44" s="3">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="F44" s="3">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="G44" s="3">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="H44" s="3">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="I44" s="3">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="J44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K44" s="3">
         <v>8900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10200</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>10</v>
@@ -2340,108 +2436,117 @@
       <c r="R44" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>56800</v>
+        <v>86700</v>
       </c>
       <c r="E45" s="3">
-        <v>48400</v>
+        <v>55100</v>
       </c>
       <c r="F45" s="3">
-        <v>44600</v>
+        <v>46900</v>
       </c>
       <c r="G45" s="3">
-        <v>45600</v>
+        <v>43200</v>
       </c>
       <c r="H45" s="3">
-        <v>59500</v>
+        <v>44200</v>
       </c>
       <c r="I45" s="3">
-        <v>173800</v>
+        <v>57600</v>
       </c>
       <c r="J45" s="3">
+        <v>168500</v>
+      </c>
+      <c r="K45" s="3">
         <v>100100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>119000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>65500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>79500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>61400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>29000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>592300</v>
+        <v>561200</v>
       </c>
       <c r="E46" s="3">
-        <v>526200</v>
+        <v>574100</v>
       </c>
       <c r="F46" s="3">
-        <v>524700</v>
+        <v>510000</v>
       </c>
       <c r="G46" s="3">
-        <v>502500</v>
+        <v>508500</v>
       </c>
       <c r="H46" s="3">
-        <v>559600</v>
+        <v>487000</v>
       </c>
       <c r="I46" s="3">
-        <v>568800</v>
+        <v>542400</v>
       </c>
       <c r="J46" s="3">
+        <v>551300</v>
+      </c>
+      <c r="K46" s="3">
         <v>813400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>872100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1177200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>302800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>438900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>306900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>283200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>190200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>295600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2463,93 +2568,99 @@
       <c r="I47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="3">
         <v>73700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>73300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>73900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>81100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>84300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>183000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>186000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>163700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>90400</v>
+        <v>90500</v>
       </c>
       <c r="E48" s="3">
-        <v>95600</v>
+        <v>87600</v>
       </c>
       <c r="F48" s="3">
-        <v>104100</v>
+        <v>92600</v>
       </c>
       <c r="G48" s="3">
-        <v>120200</v>
+        <v>100900</v>
       </c>
       <c r="H48" s="3">
-        <v>147000</v>
+        <v>116500</v>
       </c>
       <c r="I48" s="3">
-        <v>163700</v>
+        <v>142400</v>
       </c>
       <c r="J48" s="3">
+        <v>158700</v>
+      </c>
+      <c r="K48" s="3">
         <v>243700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>228900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>210300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>199300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>164200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>141300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>54300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>41500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>38700</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="3">
         <v>2700</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>10</v>
@@ -2557,23 +2668,23 @@
       <c r="G49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11900</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>10</v>
@@ -2581,8 +2692,8 @@
       <c r="O49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P49" s="3">
-        <v>100</v>
+      <c r="P49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q49" s="3">
         <v>100</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7800</v>
+        <v>10100</v>
       </c>
       <c r="E52" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="F52" s="3">
-        <v>5900</v>
+        <v>7500</v>
       </c>
       <c r="G52" s="3">
-        <v>7600</v>
+        <v>5700</v>
       </c>
       <c r="H52" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="I52" s="3">
-        <v>10600</v>
+        <v>7400</v>
       </c>
       <c r="J52" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K52" s="3">
         <v>8000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>24400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>693100</v>
+        <v>661800</v>
       </c>
       <c r="E54" s="3">
-        <v>629500</v>
+        <v>671800</v>
       </c>
       <c r="F54" s="3">
-        <v>634600</v>
+        <v>610200</v>
       </c>
       <c r="G54" s="3">
-        <v>630200</v>
+        <v>615100</v>
       </c>
       <c r="H54" s="3">
-        <v>714300</v>
+        <v>610900</v>
       </c>
       <c r="I54" s="3">
-        <v>743100</v>
+        <v>692300</v>
       </c>
       <c r="J54" s="3">
+        <v>720300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1142800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1201400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1487500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>613400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>720500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>655600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>531400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>404100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>340200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,108 +3114,117 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>228800</v>
+        <v>183300</v>
       </c>
       <c r="E59" s="3">
-        <v>168000</v>
+        <v>221700</v>
       </c>
       <c r="F59" s="3">
-        <v>171500</v>
+        <v>162800</v>
       </c>
       <c r="G59" s="3">
-        <v>167200</v>
+        <v>166200</v>
       </c>
       <c r="H59" s="3">
-        <v>250200</v>
+        <v>162000</v>
       </c>
       <c r="I59" s="3">
-        <v>313300</v>
+        <v>242500</v>
       </c>
       <c r="J59" s="3">
+        <v>303600</v>
+      </c>
+      <c r="K59" s="3">
         <v>529300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>483700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>584300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>413400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>406400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>287400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>256300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>155200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>228800</v>
+        <v>183300</v>
       </c>
       <c r="E60" s="3">
-        <v>168000</v>
+        <v>221700</v>
       </c>
       <c r="F60" s="3">
-        <v>171500</v>
+        <v>162800</v>
       </c>
       <c r="G60" s="3">
-        <v>167200</v>
+        <v>166200</v>
       </c>
       <c r="H60" s="3">
-        <v>250200</v>
+        <v>162000</v>
       </c>
       <c r="I60" s="3">
-        <v>313300</v>
+        <v>242500</v>
       </c>
       <c r="J60" s="3">
+        <v>303600</v>
+      </c>
+      <c r="K60" s="3">
         <v>529300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>483700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>584300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>413400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>406400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>287400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>256300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>155200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,58 +3273,64 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24300</v>
+        <v>34200</v>
       </c>
       <c r="E62" s="3">
-        <v>29400</v>
+        <v>23600</v>
       </c>
       <c r="F62" s="3">
-        <v>33700</v>
+        <v>28500</v>
       </c>
       <c r="G62" s="3">
-        <v>41300</v>
+        <v>32700</v>
       </c>
       <c r="H62" s="3">
-        <v>54500</v>
+        <v>40100</v>
       </c>
       <c r="I62" s="3">
-        <v>64800</v>
+        <v>52800</v>
       </c>
       <c r="J62" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K62" s="3">
         <v>102700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>108900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>105600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>105400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>85500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>97900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>31300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>253100</v>
+        <v>217500</v>
       </c>
       <c r="E66" s="3">
-        <v>197400</v>
+        <v>245300</v>
       </c>
       <c r="F66" s="3">
-        <v>205300</v>
+        <v>191300</v>
       </c>
       <c r="G66" s="3">
-        <v>208500</v>
+        <v>199000</v>
       </c>
       <c r="H66" s="3">
-        <v>304700</v>
+        <v>202100</v>
       </c>
       <c r="I66" s="3">
-        <v>378100</v>
+        <v>295400</v>
       </c>
       <c r="J66" s="3">
+        <v>366500</v>
+      </c>
+      <c r="K66" s="3">
         <v>632000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>592700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>689900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>518700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>491900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>385300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>287600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>178700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>129500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-676100</v>
+        <v>-639600</v>
       </c>
       <c r="E72" s="3">
-        <v>-686100</v>
+        <v>-655300</v>
       </c>
       <c r="F72" s="3">
-        <v>-677400</v>
+        <v>-665000</v>
       </c>
       <c r="G72" s="3">
-        <v>-670300</v>
+        <v>-656600</v>
       </c>
       <c r="H72" s="3">
-        <v>-678000</v>
+        <v>-649700</v>
       </c>
       <c r="I72" s="3">
-        <v>-718600</v>
+        <v>-657100</v>
       </c>
       <c r="J72" s="3">
+        <v>-696500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-570100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-430400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-231900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-151700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-42700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-68900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-70100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>440100</v>
+        <v>444300</v>
       </c>
       <c r="E76" s="3">
-        <v>432100</v>
+        <v>426500</v>
       </c>
       <c r="F76" s="3">
-        <v>429400</v>
+        <v>418800</v>
       </c>
       <c r="G76" s="3">
-        <v>421700</v>
+        <v>416200</v>
       </c>
       <c r="H76" s="3">
-        <v>409500</v>
+        <v>408700</v>
       </c>
       <c r="I76" s="3">
-        <v>365000</v>
+        <v>396900</v>
       </c>
       <c r="J76" s="3">
+        <v>353800</v>
+      </c>
+      <c r="K76" s="3">
         <v>510800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>608700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>797600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>94600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>228700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>270300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>243800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>225400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>210700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10000</v>
+        <v>15700</v>
       </c>
       <c r="E81" s="3">
-        <v>-8700</v>
+        <v>9700</v>
       </c>
       <c r="F81" s="3">
-        <v>-7100</v>
+        <v>-8500</v>
       </c>
       <c r="G81" s="3">
-        <v>7600</v>
+        <v>-6900</v>
       </c>
       <c r="H81" s="3">
-        <v>40600</v>
+        <v>7400</v>
       </c>
       <c r="I81" s="3">
-        <v>-148500</v>
+        <v>39400</v>
       </c>
       <c r="J81" s="3">
+        <v>-143900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-130600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-198500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-87300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-136200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,25 +4539,28 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-87300</v>
+        <v>29800</v>
       </c>
       <c r="E89" s="3">
-        <v>13300</v>
+        <v>-84600</v>
       </c>
       <c r="F89" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="G89" s="3">
-        <v>68400</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>10</v>
+        <v>12900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>66300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>10</v>
@@ -4351,8 +4568,8 @@
       <c r="J89" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOTU_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>97500</v>
+        <v>97700</v>
       </c>
       <c r="E8" s="3">
-        <v>86700</v>
+        <v>86900</v>
       </c>
       <c r="F8" s="3">
-        <v>83500</v>
+        <v>83700</v>
       </c>
       <c r="G8" s="3">
-        <v>74100</v>
+        <v>74300</v>
       </c>
       <c r="H8" s="3">
-        <v>99800</v>
+        <v>100100</v>
       </c>
       <c r="I8" s="3">
-        <v>175600</v>
+        <v>176000</v>
       </c>
       <c r="J8" s="3">
-        <v>153600</v>
+        <v>153900</v>
       </c>
       <c r="K8" s="3">
         <v>317300</v>
@@ -801,25 +801,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E9" s="3">
         <v>22000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>21900</v>
       </c>
       <c r="F9" s="3">
         <v>23300</v>
       </c>
       <c r="G9" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="H9" s="3">
-        <v>29300</v>
+        <v>29400</v>
       </c>
       <c r="I9" s="3">
-        <v>53300</v>
+        <v>53400</v>
       </c>
       <c r="J9" s="3">
-        <v>98500</v>
+        <v>98800</v>
       </c>
       <c r="K9" s="3">
         <v>103000</v>
@@ -854,25 +854,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>75400</v>
+        <v>75600</v>
       </c>
       <c r="E10" s="3">
-        <v>64800</v>
+        <v>64900</v>
       </c>
       <c r="F10" s="3">
-        <v>60300</v>
+        <v>60400</v>
       </c>
       <c r="G10" s="3">
-        <v>52100</v>
+        <v>52200</v>
       </c>
       <c r="H10" s="3">
-        <v>70500</v>
+        <v>70600</v>
       </c>
       <c r="I10" s="3">
-        <v>122300</v>
+        <v>122600</v>
       </c>
       <c r="J10" s="3">
-        <v>55100</v>
+        <v>55200</v>
       </c>
       <c r="K10" s="3">
         <v>214400</v>
@@ -931,7 +931,7 @@
         <v>13400</v>
       </c>
       <c r="E12" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="F12" s="3">
         <v>14700</v>
@@ -943,10 +943,10 @@
         <v>17000</v>
       </c>
       <c r="I12" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="J12" s="3">
-        <v>46300</v>
+        <v>46400</v>
       </c>
       <c r="K12" s="3">
         <v>60600</v>
@@ -1052,7 +1052,7 @@
         <v>1900</v>
       </c>
       <c r="J14" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K14" s="3">
         <v>7600</v>
@@ -1158,25 +1158,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>84300</v>
+        <v>84500</v>
       </c>
       <c r="E17" s="3">
-        <v>88600</v>
+        <v>88800</v>
       </c>
       <c r="F17" s="3">
-        <v>93100</v>
+        <v>93300</v>
       </c>
       <c r="G17" s="3">
-        <v>82400</v>
+        <v>82600</v>
       </c>
       <c r="H17" s="3">
-        <v>96400</v>
+        <v>96600</v>
       </c>
       <c r="I17" s="3">
-        <v>140000</v>
+        <v>140300</v>
       </c>
       <c r="J17" s="3">
-        <v>302600</v>
+        <v>303300</v>
       </c>
       <c r="K17" s="3">
         <v>438800</v>
@@ -1220,16 +1220,16 @@
         <v>-9600</v>
       </c>
       <c r="G18" s="3">
-        <v>-8300</v>
+        <v>-8400</v>
       </c>
       <c r="H18" s="3">
         <v>3500</v>
       </c>
       <c r="I18" s="3">
-        <v>35600</v>
+        <v>35700</v>
       </c>
       <c r="J18" s="3">
-        <v>-149000</v>
+        <v>-149300</v>
       </c>
       <c r="K18" s="3">
         <v>-121500</v>
@@ -1459,10 +1459,10 @@
         <v>10000</v>
       </c>
       <c r="I23" s="3">
-        <v>39300</v>
+        <v>39400</v>
       </c>
       <c r="J23" s="3">
-        <v>-144000</v>
+        <v>-144300</v>
       </c>
       <c r="K23" s="3">
         <v>-123400</v>
@@ -1606,7 +1606,7 @@
         <v>15700</v>
       </c>
       <c r="E26" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="F26" s="3">
         <v>-8500</v>
@@ -1618,10 +1618,10 @@
         <v>7400</v>
       </c>
       <c r="I26" s="3">
-        <v>39400</v>
+        <v>39500</v>
       </c>
       <c r="J26" s="3">
-        <v>-143900</v>
+        <v>-144200</v>
       </c>
       <c r="K26" s="3">
         <v>-130700</v>
@@ -1659,7 +1659,7 @@
         <v>15700</v>
       </c>
       <c r="E27" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="F27" s="3">
         <v>-8500</v>
@@ -1671,10 +1671,10 @@
         <v>7400</v>
       </c>
       <c r="I27" s="3">
-        <v>39400</v>
+        <v>39500</v>
       </c>
       <c r="J27" s="3">
-        <v>-143900</v>
+        <v>-144200</v>
       </c>
       <c r="K27" s="3">
         <v>-130600</v>
@@ -1977,7 +1977,7 @@
         <v>15700</v>
       </c>
       <c r="E33" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="F33" s="3">
         <v>-8500</v>
@@ -1989,10 +1989,10 @@
         <v>7400</v>
       </c>
       <c r="I33" s="3">
-        <v>39400</v>
+        <v>39500</v>
       </c>
       <c r="J33" s="3">
-        <v>-143900</v>
+        <v>-144200</v>
       </c>
       <c r="K33" s="3">
         <v>-130600</v>
@@ -2083,7 +2083,7 @@
         <v>15700</v>
       </c>
       <c r="E35" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="F35" s="3">
         <v>-8500</v>
@@ -2095,10 +2095,10 @@
         <v>7400</v>
       </c>
       <c r="I35" s="3">
-        <v>39400</v>
+        <v>39500</v>
       </c>
       <c r="J35" s="3">
-        <v>-143900</v>
+        <v>-144200</v>
       </c>
       <c r="K35" s="3">
         <v>-130600</v>
@@ -2233,25 +2233,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>167700</v>
+        <v>168000</v>
       </c>
       <c r="E41" s="3">
-        <v>113000</v>
+        <v>113200</v>
       </c>
       <c r="F41" s="3">
-        <v>125200</v>
+        <v>125500</v>
       </c>
       <c r="G41" s="3">
-        <v>81400</v>
+        <v>81600</v>
       </c>
       <c r="H41" s="3">
-        <v>133400</v>
+        <v>133700</v>
       </c>
       <c r="I41" s="3">
-        <v>100400</v>
+        <v>100700</v>
       </c>
       <c r="J41" s="3">
-        <v>106200</v>
+        <v>106400</v>
       </c>
       <c r="K41" s="3">
         <v>142900</v>
@@ -2286,25 +2286,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>304000</v>
+        <v>304600</v>
       </c>
       <c r="E42" s="3">
-        <v>402800</v>
+        <v>403700</v>
       </c>
       <c r="F42" s="3">
-        <v>335300</v>
+        <v>336000</v>
       </c>
       <c r="G42" s="3">
-        <v>380500</v>
+        <v>381300</v>
       </c>
       <c r="H42" s="3">
-        <v>306800</v>
+        <v>307500</v>
       </c>
       <c r="I42" s="3">
-        <v>382200</v>
+        <v>383000</v>
       </c>
       <c r="J42" s="3">
-        <v>273300</v>
+        <v>273900</v>
       </c>
       <c r="K42" s="3">
         <v>561400</v>
@@ -2407,10 +2407,10 @@
         <v>2600</v>
       </c>
       <c r="I44" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J44" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K44" s="3">
         <v>8900</v>
@@ -2445,25 +2445,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>86700</v>
+        <v>86900</v>
       </c>
       <c r="E45" s="3">
-        <v>55100</v>
+        <v>55200</v>
       </c>
       <c r="F45" s="3">
-        <v>46900</v>
+        <v>47000</v>
       </c>
       <c r="G45" s="3">
-        <v>43200</v>
+        <v>43300</v>
       </c>
       <c r="H45" s="3">
-        <v>44200</v>
+        <v>44300</v>
       </c>
       <c r="I45" s="3">
-        <v>57600</v>
+        <v>57800</v>
       </c>
       <c r="J45" s="3">
-        <v>168500</v>
+        <v>168800</v>
       </c>
       <c r="K45" s="3">
         <v>100100</v>
@@ -2498,25 +2498,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>561200</v>
+        <v>562400</v>
       </c>
       <c r="E46" s="3">
-        <v>574100</v>
+        <v>575300</v>
       </c>
       <c r="F46" s="3">
-        <v>510000</v>
+        <v>511100</v>
       </c>
       <c r="G46" s="3">
-        <v>508500</v>
+        <v>509600</v>
       </c>
       <c r="H46" s="3">
-        <v>487000</v>
+        <v>488100</v>
       </c>
       <c r="I46" s="3">
-        <v>542400</v>
+        <v>543600</v>
       </c>
       <c r="J46" s="3">
-        <v>551300</v>
+        <v>552500</v>
       </c>
       <c r="K46" s="3">
         <v>813400</v>
@@ -2604,25 +2604,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>90500</v>
+        <v>90700</v>
       </c>
       <c r="E48" s="3">
-        <v>87600</v>
+        <v>87800</v>
       </c>
       <c r="F48" s="3">
-        <v>92600</v>
+        <v>92800</v>
       </c>
       <c r="G48" s="3">
-        <v>100900</v>
+        <v>101100</v>
       </c>
       <c r="H48" s="3">
-        <v>116500</v>
+        <v>116700</v>
       </c>
       <c r="I48" s="3">
-        <v>142400</v>
+        <v>142800</v>
       </c>
       <c r="J48" s="3">
-        <v>158700</v>
+        <v>159000</v>
       </c>
       <c r="K48" s="3">
         <v>243700</v>
@@ -2819,7 +2819,7 @@
         <v>10100</v>
       </c>
       <c r="E52" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="F52" s="3">
         <v>7500</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>661800</v>
+        <v>663300</v>
       </c>
       <c r="E54" s="3">
-        <v>671800</v>
+        <v>673300</v>
       </c>
       <c r="F54" s="3">
-        <v>610200</v>
+        <v>611500</v>
       </c>
       <c r="G54" s="3">
-        <v>615100</v>
+        <v>616500</v>
       </c>
       <c r="H54" s="3">
-        <v>610900</v>
+        <v>612200</v>
       </c>
       <c r="I54" s="3">
-        <v>692300</v>
+        <v>693800</v>
       </c>
       <c r="J54" s="3">
-        <v>720300</v>
+        <v>721800</v>
       </c>
       <c r="K54" s="3">
         <v>1142800</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>183300</v>
+        <v>183700</v>
       </c>
       <c r="E59" s="3">
-        <v>221700</v>
+        <v>222200</v>
       </c>
       <c r="F59" s="3">
-        <v>162800</v>
+        <v>163200</v>
       </c>
       <c r="G59" s="3">
-        <v>166200</v>
+        <v>166600</v>
       </c>
       <c r="H59" s="3">
-        <v>162000</v>
+        <v>162400</v>
       </c>
       <c r="I59" s="3">
-        <v>242500</v>
+        <v>243100</v>
       </c>
       <c r="J59" s="3">
-        <v>303600</v>
+        <v>304300</v>
       </c>
       <c r="K59" s="3">
         <v>529300</v>
@@ -3176,25 +3176,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>183300</v>
+        <v>183700</v>
       </c>
       <c r="E60" s="3">
-        <v>221700</v>
+        <v>222200</v>
       </c>
       <c r="F60" s="3">
-        <v>162800</v>
+        <v>163200</v>
       </c>
       <c r="G60" s="3">
-        <v>166200</v>
+        <v>166600</v>
       </c>
       <c r="H60" s="3">
-        <v>162000</v>
+        <v>162400</v>
       </c>
       <c r="I60" s="3">
-        <v>242500</v>
+        <v>243100</v>
       </c>
       <c r="J60" s="3">
-        <v>303600</v>
+        <v>304300</v>
       </c>
       <c r="K60" s="3">
         <v>529300</v>
@@ -3288,19 +3288,19 @@
         <v>23600</v>
       </c>
       <c r="F62" s="3">
-        <v>28500</v>
+        <v>28600</v>
       </c>
       <c r="G62" s="3">
-        <v>32700</v>
+        <v>32800</v>
       </c>
       <c r="H62" s="3">
-        <v>40100</v>
+        <v>40200</v>
       </c>
       <c r="I62" s="3">
-        <v>52800</v>
+        <v>52900</v>
       </c>
       <c r="J62" s="3">
-        <v>62800</v>
+        <v>63000</v>
       </c>
       <c r="K62" s="3">
         <v>102700</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>217500</v>
+        <v>218000</v>
       </c>
       <c r="E66" s="3">
-        <v>245300</v>
+        <v>245800</v>
       </c>
       <c r="F66" s="3">
-        <v>191300</v>
+        <v>191800</v>
       </c>
       <c r="G66" s="3">
-        <v>199000</v>
+        <v>199400</v>
       </c>
       <c r="H66" s="3">
-        <v>202100</v>
+        <v>202600</v>
       </c>
       <c r="I66" s="3">
-        <v>295400</v>
+        <v>296000</v>
       </c>
       <c r="J66" s="3">
-        <v>366500</v>
+        <v>367300</v>
       </c>
       <c r="K66" s="3">
         <v>632000</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-639600</v>
+        <v>-641000</v>
       </c>
       <c r="E72" s="3">
-        <v>-655300</v>
+        <v>-656700</v>
       </c>
       <c r="F72" s="3">
-        <v>-665000</v>
+        <v>-666500</v>
       </c>
       <c r="G72" s="3">
-        <v>-656600</v>
+        <v>-658000</v>
       </c>
       <c r="H72" s="3">
-        <v>-649700</v>
+        <v>-651100</v>
       </c>
       <c r="I72" s="3">
-        <v>-657100</v>
+        <v>-658500</v>
       </c>
       <c r="J72" s="3">
-        <v>-696500</v>
+        <v>-698000</v>
       </c>
       <c r="K72" s="3">
         <v>-570100</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>444300</v>
+        <v>445300</v>
       </c>
       <c r="E76" s="3">
-        <v>426500</v>
+        <v>427500</v>
       </c>
       <c r="F76" s="3">
-        <v>418800</v>
+        <v>419700</v>
       </c>
       <c r="G76" s="3">
-        <v>416200</v>
+        <v>417100</v>
       </c>
       <c r="H76" s="3">
-        <v>408700</v>
+        <v>409600</v>
       </c>
       <c r="I76" s="3">
-        <v>396900</v>
+        <v>397800</v>
       </c>
       <c r="J76" s="3">
-        <v>353800</v>
+        <v>354600</v>
       </c>
       <c r="K76" s="3">
         <v>510800</v>
@@ -4159,7 +4159,7 @@
         <v>15700</v>
       </c>
       <c r="E81" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="F81" s="3">
         <v>-8500</v>
@@ -4171,10 +4171,10 @@
         <v>7400</v>
       </c>
       <c r="I81" s="3">
-        <v>39400</v>
+        <v>39500</v>
       </c>
       <c r="J81" s="3">
-        <v>-143900</v>
+        <v>-144200</v>
       </c>
       <c r="K81" s="3">
         <v>-130600</v>
@@ -4548,19 +4548,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>29800</v>
+        <v>29900</v>
       </c>
       <c r="E89" s="3">
-        <v>-84600</v>
+        <v>-84800</v>
       </c>
       <c r="F89" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="G89" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="H89" s="3">
-        <v>66300</v>
+        <v>66500</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>10</v>
